--- a/data/Game/Word.xlsx
+++ b/data/Game/Word.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\_Lang_Vietnamese\Lang\VN\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE69B47-65B2-43DF-A80E-0D0EC13C3488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA27AAC-9C30-4DC8-9CCF-57DD4B013259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="4050" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Word" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Word!$A$2:$E$486</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Word!$A$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -4375,6 +4375,9 @@
     <t>tuyệt chủng</t>
   </si>
   <si>
+    <t>gian lận</t>
+  </si>
+  <si>
     <t>tật nguyền</t>
   </si>
   <si>
@@ -4396,12 +4399,21 @@
     <t>nghiện rượu</t>
   </si>
   <si>
+    <t>chết tiệt</t>
+  </si>
+  <si>
     <t>biến thái</t>
   </si>
   <si>
     <t>hấp dẫn</t>
   </si>
   <si>
+    <t>nổi tiếng</t>
+  </si>
+  <si>
+    <t>khốn kiếp</t>
+  </si>
+  <si>
     <t>kỳ lạ</t>
   </si>
   <si>
@@ -4414,6 +4426,9 @@
     <t>xảo quyệt</t>
   </si>
   <si>
+    <t>điên rồ</t>
+  </si>
+  <si>
     <t>vĩ đại, tráng lệ</t>
   </si>
   <si>
@@ -4426,21 +4441,21 @@
     <t>tỉnh thức</t>
   </si>
   <si>
+    <t>tức giận</t>
+  </si>
+  <si>
+    <t>mới tinh, mới</t>
+  </si>
+  <si>
     <t>thuần khiết, trắng</t>
   </si>
   <si>
+    <t>cao quý</t>
+  </si>
+  <si>
     <t>vô danh</t>
   </si>
   <si>
-    <t>tức giận</t>
-  </si>
-  <si>
-    <t>mới tinh, mới</t>
-  </si>
-  <si>
-    <t>cao quý</t>
-  </si>
-  <si>
     <t>ốm</t>
   </si>
   <si>
@@ -4468,6 +4483,12 @@
     <t>đố kỵ</t>
   </si>
   <si>
+    <t>quỷ quyệt</t>
+  </si>
+  <si>
+    <t>tự hào</t>
+  </si>
+  <si>
     <t>hiền lành</t>
   </si>
   <si>
@@ -4477,12 +4498,6 @@
     <t>tuyệt vọng</t>
   </si>
   <si>
-    <t>quỷ quyệt</t>
-  </si>
-  <si>
-    <t>tự hào</t>
-  </si>
-  <si>
     <t>yên tĩnh</t>
   </si>
   <si>
@@ -4510,9 +4525,18 @@
     <t>kiêu ngạo</t>
   </si>
   <si>
+    <t>vực thẳm</t>
+  </si>
+  <si>
     <t>thù hận</t>
   </si>
   <si>
+    <t>thân yêu</t>
+  </si>
+  <si>
+    <t>hiền hòa</t>
+  </si>
+  <si>
     <t>thanh thản</t>
   </si>
   <si>
@@ -4672,114 +4696,123 @@
     <t>bị hỏng</t>
   </si>
   <si>
+    <t>ngu ngốc</t>
+  </si>
+  <si>
     <t>trước đây</t>
   </si>
   <si>
     <t>bông xốp</t>
   </si>
   <si>
+    <t>cựu công ty toàn cầu</t>
+  </si>
+  <si>
     <t>lo lắng</t>
   </si>
   <si>
+    <t>bị dồn vào đường cùng</t>
+  </si>
+  <si>
+    <t>quái đản</t>
+  </si>
+  <si>
+    <t>chăm chỉ</t>
+  </si>
+  <si>
+    <t>say tình</t>
+  </si>
+  <si>
+    <t>khôn ngoan</t>
+  </si>
+  <si>
+    <t>mưu mô</t>
+  </si>
+  <si>
+    <t>với tình mẫu tử</t>
+  </si>
+  <si>
+    <t>mạnh mẽ, dễ bị thuyết phục</t>
+  </si>
+  <si>
+    <t>yếu đuối</t>
+  </si>
+  <si>
+    <t>quyến rũ</t>
+  </si>
+  <si>
+    <t>hi sinh bản thân</t>
+  </si>
+  <si>
+    <t>bị lừa, dễ bị lừa</t>
+  </si>
+  <si>
+    <t>vô vọng</t>
+  </si>
+  <si>
+    <t>muốn bị cắm sừng, bị cắm sừng</t>
+  </si>
+  <si>
+    <t>hát</t>
+  </si>
+  <si>
+    <t>quý tộc</t>
+  </si>
+  <si>
+    <t>nông dân</t>
+  </si>
+  <si>
+    <t>ngốc</t>
+  </si>
+  <si>
+    <t>người tốt</t>
+  </si>
+  <si>
+    <t>nhà thám hiểm</t>
+  </si>
+  <si>
+    <t>kẻ lang thang</t>
+  </si>
+  <si>
+    <t>khách du lịch</t>
+  </si>
+  <si>
+    <t>tội phạm</t>
+  </si>
+  <si>
+    <t>kẻ tội đồ</t>
+  </si>
+  <si>
+    <t>kẻ ăn xin</t>
+  </si>
+  <si>
+    <t>ẩn sĩ</t>
+  </si>
+  <si>
+    <t>hiền triết</t>
+  </si>
+  <si>
+    <t>động vật</t>
+  </si>
+  <si>
     <t>quái vật</t>
   </si>
   <si>
-    <t>chăm chỉ</t>
-  </si>
-  <si>
-    <t>say tình</t>
-  </si>
-  <si>
-    <t>ngu ngốc</t>
-  </si>
-  <si>
-    <t>mưu mô</t>
-  </si>
-  <si>
-    <t>yếu đuối</t>
-  </si>
-  <si>
-    <t>quyến rũ</t>
-  </si>
-  <si>
-    <t>hi sinh bản thân</t>
-  </si>
-  <si>
-    <t>bị lừa, dễ bị lừa</t>
-  </si>
-  <si>
-    <t>vô vọng</t>
-  </si>
-  <si>
-    <t>khôn ngoan</t>
-  </si>
-  <si>
-    <t>mạnh mẽ, dễ bị thuyết phục</t>
-  </si>
-  <si>
-    <t>muốn bị cắm sừng, bị cắm sừng</t>
-  </si>
-  <si>
-    <t>hát</t>
-  </si>
-  <si>
-    <t>quý tộc</t>
-  </si>
-  <si>
-    <t>nông dân</t>
-  </si>
-  <si>
-    <t>ngốc</t>
-  </si>
-  <si>
-    <t>người tốt</t>
-  </si>
-  <si>
-    <t>nhà thám hiểm</t>
-  </si>
-  <si>
-    <t>kẻ lang thang</t>
-  </si>
-  <si>
-    <t>khách du lịch</t>
-  </si>
-  <si>
-    <t>tội phạm</t>
-  </si>
-  <si>
-    <t>kẻ tội đồ</t>
-  </si>
-  <si>
-    <t>kẻ ăn xin</t>
-  </si>
-  <si>
-    <t>ẩn sĩ</t>
-  </si>
-  <si>
-    <t>hiền triết</t>
-  </si>
-  <si>
-    <t>động vật</t>
-  </si>
-  <si>
     <t>người đau khổ</t>
   </si>
   <si>
     <t>cặn bã</t>
   </si>
   <si>
+    <t>con khốn, gái điếm</t>
+  </si>
+  <si>
     <t>thánh nhân</t>
   </si>
   <si>
     <t>ma</t>
   </si>
   <si>
-    <t>con khốn, gái điếm</t>
-  </si>
-  <si>
-    <t>quái đản</t>
-  </si>
-  <si>
     <t>linh hồn</t>
   </si>
   <si>
@@ -4789,6 +4822,9 @@
     <t>quý bà</t>
   </si>
   <si>
+    <t>tiểu nữ</t>
+  </si>
+  <si>
     <t>linh mục</t>
   </si>
   <si>
@@ -4801,6 +4837,9 @@
     <t>thiếu niên</t>
   </si>
   <si>
+    <t>nhà thơ</t>
+  </si>
+  <si>
     <t>vũ công</t>
   </si>
   <si>
@@ -4819,6 +4858,9 @@
     <t>dân thường</t>
   </si>
   <si>
+    <t>bợm rượu</t>
+  </si>
+  <si>
     <t>chiến binh</t>
   </si>
   <si>
@@ -4837,6 +4879,9 @@
     <t>phù thủy</t>
   </si>
   <si>
+    <t>nữ phù thủy</t>
+  </si>
+  <si>
     <t>trộm</t>
   </si>
   <si>
@@ -4858,9 +4903,6 @@
     <t>quán quân</t>
   </si>
   <si>
-    <t>nữ phù thủy</t>
-  </si>
-  <si>
     <t>thợ săn</t>
   </si>
   <si>
@@ -4906,6 +4948,9 @@
     <t>hiệp sĩ thánh</t>
   </si>
   <si>
+    <t>thầy gọi hồn</t>
+  </si>
+  <si>
     <t>giáo sư</t>
   </si>
   <si>
@@ -4915,9 +4960,6 @@
     <t>ác quỷ</t>
   </si>
   <si>
-    <t>thầy gọi hồn</t>
-  </si>
-  <si>
     <t>người lưu đày</t>
   </si>
   <si>
@@ -4954,6 +4996,9 @@
     <t>nhà khảo cổ</t>
   </si>
   <si>
+    <t>bác</t>
+  </si>
+  <si>
     <t>ma cà rồng</t>
   </si>
   <si>
@@ -4981,6 +5026,9 @@
     <t>núi</t>
   </si>
   <si>
+    <t>ngôi làng hiu quạnh</t>
+  </si>
+  <si>
     <t>thiên đường</t>
   </si>
   <si>
@@ -5002,21 +5050,21 @@
     <t>nơi cấm</t>
   </si>
   <si>
+    <t>Thung lũng của Nỗi buồn</t>
+  </si>
+  <si>
+    <t>Bắc Tyris</t>
+  </si>
+  <si>
+    <t>Nam Tyris</t>
+  </si>
+  <si>
     <t>vùng đất xa lạ</t>
   </si>
   <si>
     <t>phương đông</t>
   </si>
   <si>
-    <t>Thung lũng của Nỗi buồn</t>
-  </si>
-  <si>
-    <t>Bắc Tyris</t>
-  </si>
-  <si>
-    <t>Nam Tyris</t>
-  </si>
-  <si>
     <t>phương tây</t>
   </si>
   <si>
@@ -5107,6 +5155,9 @@
     <t>giường rơm</t>
   </si>
   <si>
+    <t>trên vòng phép</t>
+  </si>
+  <si>
     <t>xưởng</t>
   </si>
   <si>
@@ -5173,198 +5224,198 @@
     <t>nhà nguyện</t>
   </si>
   <si>
+    <t>nhà trọ,quán rượu</t>
+  </si>
+  <si>
+    <t>vương quốc, đế quốc, quốc gia</t>
+  </si>
+  <si>
+    <t>người theo dõi, tụ họp</t>
+  </si>
+  <si>
+    <t>làng</t>
+  </si>
+  <si>
+    <t>thị trấn</t>
+  </si>
+  <si>
+    <t>lò sưởi</t>
+  </si>
+  <si>
+    <t>vườn</t>
+  </si>
+  <si>
+    <t>hội,vòng tròn,vòng</t>
+  </si>
+  <si>
+    <t>gia tộc, gia đình</t>
+  </si>
+  <si>
+    <t>nhà</t>
+  </si>
+  <si>
+    <t>quê hương</t>
+  </si>
+  <si>
+    <t>đất, tổ</t>
+  </si>
+  <si>
+    <t>không gian, lĩnh vực</t>
+  </si>
+  <si>
+    <t>quân đoàn, đoàn kịch, quân đội, dàn nhạc, nhóm biểu diễn</t>
+  </si>
+  <si>
+    <t>bất động sản, khu vực</t>
+  </si>
+  <si>
+    <t>vương quốc, triều đại, cộng hòa</t>
+  </si>
+  <si>
+    <t>lâu đài, pháo đài, cung điện</t>
+  </si>
+  <si>
+    <t>thiên đường, nơi sinh sống, tổ, hang, hang ma</t>
+  </si>
+  <si>
+    <t>vùng cấm săn, khu được bảo vệ</t>
+  </si>
+  <si>
+    <t>căn hầm, căn cứ bí mật</t>
+  </si>
+  <si>
+    <t>nơi ẩn náu, hang</t>
+  </si>
+  <si>
+    <t>xưởng, quán rượu</t>
+  </si>
+  <si>
+    <t>khu sinh sản, ao nuôi, khu săn bắn, đầm lầy, ao</t>
+  </si>
+  <si>
+    <t>quốc gia,vương quốc</t>
+  </si>
+  <si>
+    <t>vương quốc, triều đại</t>
+  </si>
+  <si>
+    <t>điểm thử nghiệm,căn cứ bí mật</t>
+  </si>
+  <si>
+    <t>liên bang, liên hiệp</t>
+  </si>
+  <si>
+    <t>câu lạc bộ, phòng salon, hội</t>
+  </si>
+  <si>
+    <t>thuộc địa, cộng đồng, ốc đảo</t>
+  </si>
+  <si>
+    <t>học viện</t>
+  </si>
+  <si>
+    <t>thánh địa, nơi tôn nghiêm</t>
+  </si>
+  <si>
+    <t>băng nhóm, bọn cướp, bầy</t>
+  </si>
+  <si>
+    <t>đoàn, nhóm, ban nhạc</t>
+  </si>
+  <si>
+    <t>cộng đồng, tổ chức, hội kín</t>
+  </si>
+  <si>
+    <t>nơi thiêng, thánh địa</t>
+  </si>
+  <si>
+    <t>nơi tụ họp,chốn sinh hoạt,chỗ lui tới</t>
+  </si>
+  <si>
+    <t>thế giới, vùng đất, xã hội</t>
+  </si>
+  <si>
+    <t>nơi lui tới, hang, biệt thự</t>
+  </si>
+  <si>
+    <t>nơi ở, hang, cánh, lông, lò sưởi, nến</t>
+  </si>
+  <si>
+    <t>hy vọng, ánh sáng</t>
+  </si>
+  <si>
+    <t>bạn bè, đội, đàn</t>
+  </si>
+  <si>
+    <t>bầy, đàn, nhóm</t>
+  </si>
+  <si>
+    <t>đám đông,côn đồ,tàn dư,người sống sót</t>
+  </si>
+  <si>
+    <t>phòng, lớp học</t>
+  </si>
+  <si>
+    <t>dòng dõi, huyết thống, con cháu</t>
+  </si>
+  <si>
+    <t>lời thề, khế ước</t>
+  </si>
+  <si>
+    <t>đoàn, anh em, chị em</t>
+  </si>
+  <si>
+    <t>dân</t>
+  </si>
+  <si>
+    <t>giáo phái, trật tự, giáo lý</t>
+  </si>
+  <si>
+    <t>bang hội</t>
+  </si>
+  <si>
+    <t>giáo sĩ, giáo phái, tín đồ</t>
+  </si>
+  <si>
+    <t>phe, nhóm, đội</t>
+  </si>
+  <si>
+    <t>kỵ binh, lực lượng vũ trang</t>
+  </si>
+  <si>
+    <t>người bảo vệ, ca sĩ</t>
+  </si>
+  <si>
+    <t>đền, nhà thờ, tu viện</t>
+  </si>
+  <si>
+    <t>nhà ẩn, nơi ẩn náu, hang bí mật, căn cứ, pháo đài</t>
+  </si>
+  <si>
+    <t>nơi trú ẩn, trại, cô nhi viện</t>
+  </si>
+  <si>
+    <t>hội tương trợ,nơi trú ẩn</t>
+  </si>
+  <si>
+    <t>cung điện, lâu đài, dinh thự</t>
+  </si>
+  <si>
+    <t>khủng bố, phiến quân, lực lượng kháng chiến</t>
+  </si>
+  <si>
+    <t>vùng, bí mật, arcadia, thiên đường</t>
+  </si>
+  <si>
+    <t>thiên đường, thiên đàng, vùng đất trong mơ, khách sạn, xứ thần tiên</t>
+  </si>
+  <si>
     <t>nhà trọ</t>
   </si>
   <si>
-    <t>làng</t>
-  </si>
-  <si>
-    <t>thị trấn</t>
-  </si>
-  <si>
-    <t>lò sưởi</t>
-  </si>
-  <si>
-    <t>nhà trọ,quán rượu</t>
-  </si>
-  <si>
-    <t>vương quốc, đế quốc, quốc gia</t>
-  </si>
-  <si>
-    <t>người theo dõi, tụ họp</t>
-  </si>
-  <si>
-    <t>vườn</t>
-  </si>
-  <si>
-    <t>nhà</t>
-  </si>
-  <si>
-    <t>quê hương</t>
-  </si>
-  <si>
-    <t>đất, tổ</t>
-  </si>
-  <si>
-    <t>không gian, lĩnh vực</t>
-  </si>
-  <si>
-    <t>bất động sản, khu vực</t>
-  </si>
-  <si>
-    <t>vương quốc, triều đại, cộng hòa</t>
-  </si>
-  <si>
-    <t>gia tộc, gia đình</t>
-  </si>
-  <si>
-    <t>quân đoàn, đoàn kịch, quân đội, dàn nhạc, nhóm biểu diễn</t>
-  </si>
-  <si>
-    <t>hội,vòng tròn,vòng</t>
-  </si>
-  <si>
-    <t>lâu đài, pháo đài, cung điện</t>
-  </si>
-  <si>
-    <t>thiên đường, nơi sinh sống, tổ, hang, hang ma</t>
-  </si>
-  <si>
-    <t>căn hầm, căn cứ bí mật</t>
-  </si>
-  <si>
-    <t>nơi ẩn náu, hang</t>
-  </si>
-  <si>
-    <t>xưởng, quán rượu</t>
-  </si>
-  <si>
-    <t>khu sinh sản, ao nuôi, khu săn bắn, đầm lầy, ao</t>
-  </si>
-  <si>
-    <t>vương quốc, triều đại</t>
-  </si>
-  <si>
-    <t>điểm thử nghiệm,căn cứ bí mật</t>
-  </si>
-  <si>
-    <t>quốc gia,vương quốc</t>
-  </si>
-  <si>
-    <t>vùng cấm săn, khu được bảo vệ</t>
-  </si>
-  <si>
-    <t>liên bang, liên hiệp</t>
-  </si>
-  <si>
-    <t>câu lạc bộ, phòng salon, hội</t>
-  </si>
-  <si>
-    <t>thuộc địa, cộng đồng, ốc đảo</t>
-  </si>
-  <si>
-    <t>học viện</t>
-  </si>
-  <si>
-    <t>thánh địa, nơi tôn nghiêm</t>
-  </si>
-  <si>
-    <t>băng nhóm, bọn cướp, bầy</t>
-  </si>
-  <si>
-    <t>đoàn, nhóm, ban nhạc</t>
-  </si>
-  <si>
-    <t>nơi thiêng, thánh địa</t>
-  </si>
-  <si>
-    <t>cộng đồng, tổ chức, hội kín</t>
-  </si>
-  <si>
-    <t>nơi tụ họp,chốn sinh hoạt,chỗ lui tới</t>
-  </si>
-  <si>
-    <t>thế giới, vùng đất, xã hội</t>
-  </si>
-  <si>
-    <t>nơi lui tới, hang, biệt thự</t>
-  </si>
-  <si>
-    <t>nơi ở, hang, cánh, lông, lò sưởi, nến</t>
-  </si>
-  <si>
-    <t>hy vọng, ánh sáng</t>
-  </si>
-  <si>
-    <t>bạn bè, đội, đàn</t>
-  </si>
-  <si>
-    <t>bầy, đàn, nhóm</t>
-  </si>
-  <si>
-    <t>phòng, lớp học</t>
-  </si>
-  <si>
-    <t>dòng dõi, huyết thống, con cháu</t>
-  </si>
-  <si>
-    <t>lời thề, khế ước</t>
-  </si>
-  <si>
-    <t>đám đông,côn đồ,tàn dư,người sống sót</t>
-  </si>
-  <si>
-    <t>đoàn, anh em, chị em</t>
-  </si>
-  <si>
-    <t>dân</t>
-  </si>
-  <si>
-    <t>giáo phái, trật tự, giáo lý</t>
-  </si>
-  <si>
-    <t>bang hội</t>
-  </si>
-  <si>
-    <t>giáo sĩ, giáo phái, tín đồ</t>
-  </si>
-  <si>
-    <t>phe, nhóm, đội</t>
-  </si>
-  <si>
-    <t>kỵ binh, lực lượng vũ trang</t>
-  </si>
-  <si>
-    <t>người bảo vệ, ca sĩ</t>
-  </si>
-  <si>
-    <t>đền, nhà thờ, tu viện</t>
-  </si>
-  <si>
-    <t>nơi trú ẩn, trại, cô nhi viện</t>
-  </si>
-  <si>
-    <t>khủng bố, phiến quân, lực lượng kháng chiến</t>
-  </si>
-  <si>
-    <t>vùng, bí mật, arcadia, thiên đường</t>
-  </si>
-  <si>
     <t>luật</t>
   </si>
   <si>
-    <t>nhà ẩn, nơi ẩn náu, hang bí mật, căn cứ, pháo đài</t>
-  </si>
-  <si>
-    <t>hội tương trợ,nơi trú ẩn</t>
-  </si>
-  <si>
-    <t>cung điện, lâu đài, dinh thự</t>
-  </si>
-  <si>
-    <t>thiên đường, thiên đàng, vùng đất trong mơ, khách sạn, xứ thần tiên</t>
-  </si>
-  <si>
     <t>bản án, cực hình, bí mật, đồ chơi</t>
   </si>
   <si>
@@ -5377,6 +5428,9 @@
     <t>lòng tự hào, lời nguyền, tội lỗi, dũng khí</t>
   </si>
   <si>
+    <t>cha, mẹ, con trai, con gái, trẻ em, đứa trẻ</t>
+  </si>
+  <si>
     <t>truyền thuyết, câu chuyện truyền miệng</t>
   </si>
   <si>
@@ -5395,15 +5449,15 @@
     <t>Chủ</t>
   </si>
   <si>
-    <t>cha, mẹ, con trai, con gái, trẻ em, đứa trẻ</t>
-  </si>
-  <si>
     <t>Anh/Em</t>
   </si>
   <si>
     <t>Chị/em</t>
   </si>
   <si>
+    <t>Bố già</t>
+  </si>
+  <si>
     <t>Mẹ già</t>
   </si>
   <si>
@@ -5425,12 +5479,18 @@
     <t>Vua</t>
   </si>
   <si>
-    <t>Bố già</t>
-  </si>
-  <si>
     <t>Hoàng Hậu</t>
   </si>
   <si>
+    <t>Thưa Bệ Hạ</t>
+  </si>
+  <si>
+    <t>Thằng lợn bẩn</t>
+  </si>
+  <si>
+    <t>Chị/Em</t>
+  </si>
+  <si>
     <t>Thầy/Cô</t>
   </si>
   <si>
@@ -5440,114 +5500,105 @@
     <t>Nhà sản xuất</t>
   </si>
   <si>
+    <t>Đại Tướng</t>
+  </si>
+  <si>
+    <t>Người Truyền Giảng</t>
+  </si>
+  <si>
+    <t>Giám đốc</t>
+  </si>
+  <si>
+    <t>Đô Đốc</t>
+  </si>
+  <si>
+    <t>Đoàn Trưởng</t>
+  </si>
+  <si>
+    <t>Sếp</t>
+  </si>
+  <si>
     <t>Chủ tịch</t>
   </si>
   <si>
-    <t>Thưa Bệ Hạ</t>
-  </si>
-  <si>
-    <t>Chị/Em</t>
-  </si>
-  <si>
-    <t>Đại Tướng</t>
-  </si>
-  <si>
-    <t>Giám đốc</t>
+    <t>Cha</t>
+  </si>
+  <si>
+    <t>Mẹ</t>
+  </si>
+  <si>
+    <t>Bà chủ</t>
+  </si>
+  <si>
+    <t>Con đĩ</t>
+  </si>
+  <si>
+    <t>Con giun</t>
+  </si>
+  <si>
+    <t>Kẻ thất bại</t>
+  </si>
+  <si>
+    <t>Nhát gan</t>
+  </si>
+  <si>
+    <t>Đồ bỏ đi</t>
+  </si>
+  <si>
+    <t>Kẻ biến thái</t>
+  </si>
+  <si>
+    <t>Hoàng đế</t>
+  </si>
+  <si>
+    <t>Thiên tử</t>
+  </si>
+  <si>
+    <t>Bá tước</t>
+  </si>
+  <si>
+    <t>Công tước</t>
+  </si>
+  <si>
+    <t>Quý ngài</t>
+  </si>
+  <si>
+    <t>Anh hùng</t>
+  </si>
+  <si>
+    <t>Tiền bối</t>
+  </si>
+  <si>
+    <t>Thưa ngài</t>
+  </si>
+  <si>
+    <t>Quý tộc</t>
+  </si>
+  <si>
+    <t>Tướng</t>
+  </si>
+  <si>
+    <t>Lãnh chúa</t>
+  </si>
+  <si>
+    <t>Chỉ huy</t>
+  </si>
+  <si>
+    <t>Đề đốc</t>
+  </si>
+  <si>
+    <t>Đề đốc tồi</t>
+  </si>
+  <si>
+    <t>Điện Hạ</t>
+  </si>
+  <si>
+    <t>Sư phụ</t>
   </si>
   <si>
     <t>Thuyền trưởng</t>
   </si>
   <si>
-    <t>Sếp</t>
-  </si>
-  <si>
-    <t>Cha</t>
-  </si>
-  <si>
-    <t>Mẹ</t>
-  </si>
-  <si>
-    <t>Bà chủ</t>
-  </si>
-  <si>
-    <t>Đoàn Trưởng</t>
-  </si>
-  <si>
-    <t>Đô Đốc</t>
-  </si>
-  <si>
-    <t>Người Truyền Giảng</t>
-  </si>
-  <si>
-    <t>Thằng lợn bẩn</t>
-  </si>
-  <si>
-    <t>Con đĩ</t>
-  </si>
-  <si>
-    <t>Con giun</t>
-  </si>
-  <si>
-    <t>Kẻ thất bại</t>
-  </si>
-  <si>
-    <t>Nhát gan</t>
-  </si>
-  <si>
-    <t>Đồ bỏ đi</t>
-  </si>
-  <si>
-    <t>Kẻ biến thái</t>
-  </si>
-  <si>
-    <t>Hoàng đế</t>
-  </si>
-  <si>
-    <t>Thiên tử</t>
-  </si>
-  <si>
-    <t>Bá tước</t>
-  </si>
-  <si>
-    <t>Công tước</t>
-  </si>
-  <si>
-    <t>Quý ngài</t>
-  </si>
-  <si>
-    <t>Anh hùng</t>
-  </si>
-  <si>
-    <t>Tiền bối</t>
-  </si>
-  <si>
-    <t>Thưa ngài</t>
-  </si>
-  <si>
-    <t>Quý tộc</t>
-  </si>
-  <si>
-    <t>Tướng</t>
-  </si>
-  <si>
-    <t>Lãnh chúa</t>
-  </si>
-  <si>
-    <t>Chỉ huy</t>
-  </si>
-  <si>
-    <t>Đề đốc</t>
-  </si>
-  <si>
-    <t>Đề đốc tồi</t>
-  </si>
-  <si>
-    <t>Sư phụ</t>
-  </si>
-  <si>
-    <t>Điện Hạ</t>
-  </si>
-  <si>
     <t>Ông</t>
   </si>
   <si>
@@ -5557,6 +5608,9 @@
     <t>Ông già</t>
   </si>
   <si>
+    <t>Bà già độc ác</t>
+  </si>
+  <si>
     <t>Người thân yêu</t>
   </si>
   <si>
@@ -5569,9 +5623,6 @@
     <t>Người được chọn</t>
   </si>
   <si>
-    <t>Bà già độc ác</t>
-  </si>
-  <si>
     <t>Kỵ không quân</t>
   </si>
   <si>
@@ -5645,57 +5696,6 @@
   </si>
   <si>
     <t>trang trại sữa</t>
-  </si>
-  <si>
-    <t>nhà thơ</t>
-  </si>
-  <si>
-    <t>hiền hòa</t>
-  </si>
-  <si>
-    <t>cựu công ty toàn cầu</t>
-  </si>
-  <si>
-    <t>ngôi làng hiu quạnh</t>
-  </si>
-  <si>
-    <t>bị dồn vào đường cùng</t>
-  </si>
-  <si>
-    <t>bợm rượu</t>
-  </si>
-  <si>
-    <t>thân yêu</t>
-  </si>
-  <si>
-    <t>với tình mẫu tử</t>
-  </si>
-  <si>
-    <t>vực thẳm</t>
-  </si>
-  <si>
-    <t>khốn kiếp</t>
-  </si>
-  <si>
-    <t>trên vòng phép</t>
-  </si>
-  <si>
-    <t>chết tiệt</t>
-  </si>
-  <si>
-    <t>điên rồ</t>
-  </si>
-  <si>
-    <t>gian lận</t>
-  </si>
-  <si>
-    <t>tiểu nữ</t>
-  </si>
-  <si>
-    <t>bác</t>
-  </si>
-  <si>
-    <t>nổi tiếng</t>
   </si>
 </sst>
 </file>
@@ -6057,15 +6057,15 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E422" sqref="E422"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="5" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6082,7 +6082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -6099,7 +6099,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -6116,7 +6116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -6133,7 +6133,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -6150,7 +6150,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -6167,7 +6167,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -6184,7 +6184,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -6192,7 +6192,7 @@
         <v>1436</v>
       </c>
       <c r="C9" t="s">
-        <v>1887</v>
+        <v>1450</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
@@ -6201,7 +6201,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>1436</v>
       </c>
       <c r="C10" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="D10" t="s">
         <v>27</v>
@@ -6218,7 +6218,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -6226,7 +6226,7 @@
         <v>1436</v>
       </c>
       <c r="C11" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="D11" t="s">
         <v>30</v>
@@ -6235,7 +6235,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -6243,7 +6243,7 @@
         <v>1436</v>
       </c>
       <c r="C12" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="D12" t="s">
         <v>33</v>
@@ -6252,7 +6252,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -6260,7 +6260,7 @@
         <v>1436</v>
       </c>
       <c r="C13" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="D13" t="s">
         <v>36</v>
@@ -6269,7 +6269,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -6277,7 +6277,7 @@
         <v>1436</v>
       </c>
       <c r="C14" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="D14" t="s">
         <v>39</v>
@@ -6286,7 +6286,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -6294,7 +6294,7 @@
         <v>1436</v>
       </c>
       <c r="C15" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="D15" t="s">
         <v>42</v>
@@ -6303,7 +6303,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -6311,7 +6311,7 @@
         <v>1436</v>
       </c>
       <c r="C16" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="D16" t="s">
         <v>45</v>
@@ -6320,7 +6320,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -6328,7 +6328,7 @@
         <v>1436</v>
       </c>
       <c r="C17" t="s">
-        <v>1885</v>
+        <v>1458</v>
       </c>
       <c r="D17" t="s">
         <v>48</v>
@@ -6337,7 +6337,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>1436</v>
       </c>
       <c r="C18" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="D18" t="s">
         <v>51</v>
@@ -6354,7 +6354,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -6362,7 +6362,7 @@
         <v>1436</v>
       </c>
       <c r="C19" t="s">
-        <v>1458</v>
+        <v>1460</v>
       </c>
       <c r="D19" t="s">
         <v>54</v>
@@ -6371,7 +6371,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -6379,7 +6379,7 @@
         <v>1436</v>
       </c>
       <c r="C20" t="s">
-        <v>1890</v>
+        <v>1461</v>
       </c>
       <c r="D20" t="s">
         <v>57</v>
@@ -6388,7 +6388,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -6396,7 +6396,7 @@
         <v>1436</v>
       </c>
       <c r="C21" t="s">
-        <v>1883</v>
+        <v>1462</v>
       </c>
       <c r="D21" t="s">
         <v>60</v>
@@ -6405,7 +6405,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -6413,7 +6413,7 @@
         <v>1436</v>
       </c>
       <c r="C22" t="s">
-        <v>1459</v>
+        <v>1463</v>
       </c>
       <c r="D22" t="s">
         <v>63</v>
@@ -6422,7 +6422,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -6430,7 +6430,7 @@
         <v>1436</v>
       </c>
       <c r="C23" t="s">
-        <v>1460</v>
+        <v>1464</v>
       </c>
       <c r="D23" t="s">
         <v>66</v>
@@ -6439,7 +6439,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>68</v>
       </c>
@@ -6447,7 +6447,7 @@
         <v>1436</v>
       </c>
       <c r="C24" t="s">
-        <v>1461</v>
+        <v>1465</v>
       </c>
       <c r="D24" t="s">
         <v>69</v>
@@ -6456,7 +6456,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>71</v>
       </c>
@@ -6464,7 +6464,7 @@
         <v>1436</v>
       </c>
       <c r="C25" t="s">
-        <v>1462</v>
+        <v>1466</v>
       </c>
       <c r="D25" t="s">
         <v>72</v>
@@ -6473,7 +6473,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>74</v>
       </c>
@@ -6481,7 +6481,7 @@
         <v>1436</v>
       </c>
       <c r="C26" t="s">
-        <v>1886</v>
+        <v>1467</v>
       </c>
       <c r="D26" t="s">
         <v>75</v>
@@ -6490,7 +6490,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -6498,7 +6498,7 @@
         <v>1436</v>
       </c>
       <c r="C27" t="s">
-        <v>1463</v>
+        <v>1468</v>
       </c>
       <c r="D27" t="s">
         <v>78</v>
@@ -6507,7 +6507,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>80</v>
       </c>
@@ -6515,7 +6515,7 @@
         <v>1436</v>
       </c>
       <c r="C28" t="s">
-        <v>1464</v>
+        <v>1469</v>
       </c>
       <c r="D28" t="s">
         <v>81</v>
@@ -6524,7 +6524,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>83</v>
       </c>
@@ -6532,7 +6532,7 @@
         <v>1436</v>
       </c>
       <c r="C29" t="s">
-        <v>1465</v>
+        <v>1470</v>
       </c>
       <c r="D29" t="s">
         <v>84</v>
@@ -6541,7 +6541,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>86</v>
       </c>
@@ -6549,7 +6549,7 @@
         <v>1437</v>
       </c>
       <c r="C30" t="s">
-        <v>1466</v>
+        <v>1471</v>
       </c>
       <c r="D30" t="s">
         <v>87</v>
@@ -6558,7 +6558,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>89</v>
       </c>
@@ -6566,7 +6566,7 @@
         <v>1436</v>
       </c>
       <c r="C31" t="s">
-        <v>1469</v>
+        <v>1472</v>
       </c>
       <c r="D31" t="s">
         <v>90</v>
@@ -6575,7 +6575,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>92</v>
       </c>
@@ -6583,7 +6583,7 @@
         <v>1436</v>
       </c>
       <c r="C32" t="s">
-        <v>1470</v>
+        <v>1473</v>
       </c>
       <c r="D32" t="s">
         <v>93</v>
@@ -6592,7 +6592,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>95</v>
       </c>
@@ -6600,7 +6600,7 @@
         <v>1436</v>
       </c>
       <c r="C33" t="s">
-        <v>1467</v>
+        <v>1474</v>
       </c>
       <c r="D33" t="s">
         <v>96</v>
@@ -6609,7 +6609,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>98</v>
       </c>
@@ -6617,7 +6617,7 @@
         <v>1436</v>
       </c>
       <c r="C34" t="s">
-        <v>1471</v>
+        <v>1475</v>
       </c>
       <c r="D34" t="s">
         <v>99</v>
@@ -6626,7 +6626,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>101</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>1436</v>
       </c>
       <c r="C35" t="s">
-        <v>1468</v>
+        <v>1476</v>
       </c>
       <c r="D35" t="s">
         <v>102</v>
@@ -6643,7 +6643,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>104</v>
       </c>
@@ -6651,7 +6651,7 @@
         <v>1436</v>
       </c>
       <c r="C36" t="s">
-        <v>1472</v>
+        <v>1477</v>
       </c>
       <c r="D36" t="s">
         <v>105</v>
@@ -6660,7 +6660,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>107</v>
       </c>
@@ -6668,7 +6668,7 @@
         <v>1436</v>
       </c>
       <c r="C37" t="s">
-        <v>1473</v>
+        <v>1478</v>
       </c>
       <c r="D37" t="s">
         <v>108</v>
@@ -6677,7 +6677,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>110</v>
       </c>
@@ -6685,7 +6685,7 @@
         <v>1437</v>
       </c>
       <c r="C38" t="s">
-        <v>1474</v>
+        <v>1479</v>
       </c>
       <c r="D38" t="s">
         <v>111</v>
@@ -6694,7 +6694,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>113</v>
       </c>
@@ -6702,7 +6702,7 @@
         <v>1436</v>
       </c>
       <c r="C39" t="s">
-        <v>1475</v>
+        <v>1480</v>
       </c>
       <c r="D39" t="s">
         <v>114</v>
@@ -6711,7 +6711,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>116</v>
       </c>
@@ -6719,7 +6719,7 @@
         <v>1436</v>
       </c>
       <c r="C40" t="s">
-        <v>1476</v>
+        <v>1481</v>
       </c>
       <c r="D40" t="s">
         <v>117</v>
@@ -6728,7 +6728,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>119</v>
       </c>
@@ -6736,7 +6736,7 @@
         <v>1436</v>
       </c>
       <c r="C41" t="s">
-        <v>1477</v>
+        <v>1482</v>
       </c>
       <c r="D41" t="s">
         <v>120</v>
@@ -6745,7 +6745,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>122</v>
       </c>
@@ -6753,7 +6753,7 @@
         <v>1436</v>
       </c>
       <c r="C42" t="s">
-        <v>1462</v>
+        <v>1466</v>
       </c>
       <c r="D42" t="s">
         <v>123</v>
@@ -6762,7 +6762,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>125</v>
       </c>
@@ -6770,7 +6770,7 @@
         <v>1437</v>
       </c>
       <c r="C43" t="s">
-        <v>1478</v>
+        <v>1483</v>
       </c>
       <c r="D43" t="s">
         <v>126</v>
@@ -6779,7 +6779,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>128</v>
       </c>
@@ -6787,7 +6787,7 @@
         <v>1436</v>
       </c>
       <c r="C44" t="s">
-        <v>1479</v>
+        <v>1484</v>
       </c>
       <c r="D44" t="s">
         <v>129</v>
@@ -6796,7 +6796,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>131</v>
       </c>
@@ -6804,7 +6804,7 @@
         <v>1436</v>
       </c>
       <c r="C45" t="s">
-        <v>1480</v>
+        <v>1485</v>
       </c>
       <c r="D45" t="s">
         <v>132</v>
@@ -6813,7 +6813,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>134</v>
       </c>
@@ -6821,7 +6821,7 @@
         <v>1436</v>
       </c>
       <c r="C46" t="s">
-        <v>1484</v>
+        <v>1486</v>
       </c>
       <c r="D46" t="s">
         <v>135</v>
@@ -6830,7 +6830,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>137</v>
       </c>
@@ -6838,7 +6838,7 @@
         <v>1436</v>
       </c>
       <c r="C47" t="s">
-        <v>1485</v>
+        <v>1487</v>
       </c>
       <c r="D47" t="s">
         <v>138</v>
@@ -6847,7 +6847,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>140</v>
       </c>
@@ -6855,7 +6855,7 @@
         <v>1436</v>
       </c>
       <c r="C48" t="s">
-        <v>1481</v>
+        <v>1488</v>
       </c>
       <c r="D48" t="s">
         <v>141</v>
@@ -6864,7 +6864,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>143</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>1436</v>
       </c>
       <c r="C49" t="s">
-        <v>1482</v>
+        <v>1489</v>
       </c>
       <c r="D49" t="s">
         <v>144</v>
@@ -6881,7 +6881,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>146</v>
       </c>
@@ -6889,7 +6889,7 @@
         <v>1436</v>
       </c>
       <c r="C50" t="s">
-        <v>1483</v>
+        <v>1490</v>
       </c>
       <c r="D50" t="s">
         <v>147</v>
@@ -6898,7 +6898,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>149</v>
       </c>
@@ -6906,7 +6906,7 @@
         <v>1436</v>
       </c>
       <c r="C51" t="s">
-        <v>1486</v>
+        <v>1491</v>
       </c>
       <c r="D51" t="s">
         <v>150</v>
@@ -6915,7 +6915,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>152</v>
       </c>
@@ -6923,7 +6923,7 @@
         <v>1436</v>
       </c>
       <c r="C52" t="s">
-        <v>1487</v>
+        <v>1492</v>
       </c>
       <c r="D52" t="s">
         <v>153</v>
@@ -6932,7 +6932,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>155</v>
       </c>
@@ -6940,7 +6940,7 @@
         <v>1436</v>
       </c>
       <c r="C53" t="s">
-        <v>1488</v>
+        <v>1493</v>
       </c>
       <c r="D53" t="s">
         <v>156</v>
@@ -6949,7 +6949,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>158</v>
       </c>
@@ -6957,7 +6957,7 @@
         <v>1436</v>
       </c>
       <c r="C54" t="s">
-        <v>1489</v>
+        <v>1494</v>
       </c>
       <c r="D54" t="s">
         <v>159</v>
@@ -6966,7 +6966,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>161</v>
       </c>
@@ -6974,7 +6974,7 @@
         <v>1436</v>
       </c>
       <c r="C55" t="s">
-        <v>1490</v>
+        <v>1495</v>
       </c>
       <c r="D55" t="s">
         <v>162</v>
@@ -6983,7 +6983,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>164</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>1436</v>
       </c>
       <c r="C56" t="s">
-        <v>1491</v>
+        <v>1496</v>
       </c>
       <c r="D56" t="s">
         <v>165</v>
@@ -7000,7 +7000,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>167</v>
       </c>
@@ -7008,7 +7008,7 @@
         <v>1436</v>
       </c>
       <c r="C57" t="s">
-        <v>1492</v>
+        <v>1497</v>
       </c>
       <c r="D57" t="s">
         <v>168</v>
@@ -7017,7 +7017,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>170</v>
       </c>
@@ -7025,7 +7025,7 @@
         <v>1436</v>
       </c>
       <c r="C58" t="s">
-        <v>1493</v>
+        <v>1498</v>
       </c>
       <c r="D58" t="s">
         <v>171</v>
@@ -7034,7 +7034,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>173</v>
       </c>
@@ -7042,7 +7042,7 @@
         <v>1436</v>
       </c>
       <c r="C59" t="s">
-        <v>1481</v>
+        <v>1488</v>
       </c>
       <c r="D59" t="s">
         <v>174</v>
@@ -7051,7 +7051,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>176</v>
       </c>
@@ -7059,7 +7059,7 @@
         <v>1436</v>
       </c>
       <c r="C60" t="s">
-        <v>1494</v>
+        <v>1499</v>
       </c>
       <c r="D60" t="s">
         <v>177</v>
@@ -7068,7 +7068,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>179</v>
       </c>
@@ -7076,7 +7076,7 @@
         <v>1436</v>
       </c>
       <c r="C61" t="s">
-        <v>1882</v>
+        <v>1500</v>
       </c>
       <c r="D61" t="s">
         <v>180</v>
@@ -7085,7 +7085,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>182</v>
       </c>
@@ -7093,7 +7093,7 @@
         <v>1436</v>
       </c>
       <c r="C62" t="s">
-        <v>1495</v>
+        <v>1501</v>
       </c>
       <c r="D62" t="s">
         <v>183</v>
@@ -7102,7 +7102,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>185</v>
       </c>
@@ -7110,7 +7110,7 @@
         <v>1436</v>
       </c>
       <c r="C63" t="s">
-        <v>1880</v>
+        <v>1502</v>
       </c>
       <c r="D63" t="s">
         <v>186</v>
@@ -7119,7 +7119,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>188</v>
       </c>
@@ -7127,7 +7127,7 @@
         <v>1436</v>
       </c>
       <c r="C64" t="s">
-        <v>1486</v>
+        <v>1491</v>
       </c>
       <c r="D64" t="s">
         <v>189</v>
@@ -7136,7 +7136,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>191</v>
       </c>
@@ -7144,7 +7144,7 @@
         <v>1436</v>
       </c>
       <c r="C65" t="s">
-        <v>1875</v>
+        <v>1503</v>
       </c>
       <c r="D65" t="s">
         <v>192</v>
@@ -7153,7 +7153,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>194</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>1436</v>
       </c>
       <c r="C66" t="s">
-        <v>1496</v>
+        <v>1504</v>
       </c>
       <c r="D66" t="s">
         <v>195</v>
@@ -7170,7 +7170,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>197</v>
       </c>
@@ -7178,7 +7178,7 @@
         <v>1436</v>
       </c>
       <c r="C67" t="s">
-        <v>1497</v>
+        <v>1505</v>
       </c>
       <c r="D67" t="s">
         <v>198</v>
@@ -7187,7 +7187,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>200</v>
       </c>
@@ -7195,7 +7195,7 @@
         <v>1436</v>
       </c>
       <c r="C68" t="s">
-        <v>1498</v>
+        <v>1506</v>
       </c>
       <c r="D68" t="s">
         <v>201</v>
@@ -7204,7 +7204,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>203</v>
       </c>
@@ -7212,7 +7212,7 @@
         <v>1436</v>
       </c>
       <c r="C69" t="s">
-        <v>1499</v>
+        <v>1507</v>
       </c>
       <c r="D69" t="s">
         <v>204</v>
@@ -7221,7 +7221,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>206</v>
       </c>
@@ -7229,7 +7229,7 @@
         <v>1436</v>
       </c>
       <c r="C70" t="s">
-        <v>1500</v>
+        <v>1508</v>
       </c>
       <c r="D70" t="s">
         <v>207</v>
@@ -7238,7 +7238,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>209</v>
       </c>
@@ -7246,7 +7246,7 @@
         <v>1436</v>
       </c>
       <c r="C71" t="s">
-        <v>1501</v>
+        <v>1509</v>
       </c>
       <c r="D71" t="s">
         <v>210</v>
@@ -7255,7 +7255,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>212</v>
       </c>
@@ -7263,7 +7263,7 @@
         <v>1436</v>
       </c>
       <c r="C72" t="s">
-        <v>1502</v>
+        <v>1510</v>
       </c>
       <c r="D72" t="s">
         <v>213</v>
@@ -7272,7 +7272,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>215</v>
       </c>
@@ -7280,7 +7280,7 @@
         <v>1436</v>
       </c>
       <c r="C73" t="s">
-        <v>1503</v>
+        <v>1511</v>
       </c>
       <c r="D73" t="s">
         <v>216</v>
@@ -7289,7 +7289,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>218</v>
       </c>
@@ -7297,7 +7297,7 @@
         <v>1437</v>
       </c>
       <c r="C74" t="s">
-        <v>1504</v>
+        <v>1512</v>
       </c>
       <c r="D74" t="s">
         <v>219</v>
@@ -7306,7 +7306,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>221</v>
       </c>
@@ -7314,7 +7314,7 @@
         <v>1436</v>
       </c>
       <c r="C75" t="s">
-        <v>1505</v>
+        <v>1513</v>
       </c>
       <c r="D75" t="s">
         <v>222</v>
@@ -7323,7 +7323,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>224</v>
       </c>
@@ -7331,7 +7331,7 @@
         <v>1436</v>
       </c>
       <c r="C76" t="s">
-        <v>1506</v>
+        <v>1514</v>
       </c>
       <c r="D76" t="s">
         <v>225</v>
@@ -7340,7 +7340,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>227</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>1436</v>
       </c>
       <c r="C77" t="s">
-        <v>1507</v>
+        <v>1515</v>
       </c>
       <c r="D77" t="s">
         <v>228</v>
@@ -7357,7 +7357,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>230</v>
       </c>
@@ -7365,7 +7365,7 @@
         <v>1436</v>
       </c>
       <c r="C78" t="s">
-        <v>1508</v>
+        <v>1516</v>
       </c>
       <c r="D78" t="s">
         <v>231</v>
@@ -7374,7 +7374,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>233</v>
       </c>
@@ -7382,7 +7382,7 @@
         <v>1438</v>
       </c>
       <c r="C79" t="s">
-        <v>1509</v>
+        <v>1517</v>
       </c>
       <c r="D79" t="s">
         <v>234</v>
@@ -7391,7 +7391,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>236</v>
       </c>
@@ -7399,7 +7399,7 @@
         <v>1436</v>
       </c>
       <c r="C80" t="s">
-        <v>1510</v>
+        <v>1518</v>
       </c>
       <c r="D80" t="s">
         <v>237</v>
@@ -7408,7 +7408,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>239</v>
       </c>
@@ -7416,7 +7416,7 @@
         <v>1436</v>
       </c>
       <c r="C81" t="s">
-        <v>1511</v>
+        <v>1519</v>
       </c>
       <c r="D81" t="s">
         <v>240</v>
@@ -7425,7 +7425,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>242</v>
       </c>
@@ -7433,7 +7433,7 @@
         <v>1436</v>
       </c>
       <c r="C82" t="s">
-        <v>1512</v>
+        <v>1520</v>
       </c>
       <c r="D82" t="s">
         <v>243</v>
@@ -7442,7 +7442,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>245</v>
       </c>
@@ -7450,7 +7450,7 @@
         <v>1436</v>
       </c>
       <c r="C83" t="s">
-        <v>1513</v>
+        <v>1521</v>
       </c>
       <c r="D83" t="s">
         <v>246</v>
@@ -7459,7 +7459,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>248</v>
       </c>
@@ -7467,7 +7467,7 @@
         <v>1436</v>
       </c>
       <c r="C84" t="s">
-        <v>1514</v>
+        <v>1522</v>
       </c>
       <c r="D84" t="s">
         <v>249</v>
@@ -7476,7 +7476,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>251</v>
       </c>
@@ -7484,7 +7484,7 @@
         <v>1436</v>
       </c>
       <c r="C85" t="s">
-        <v>1515</v>
+        <v>1523</v>
       </c>
       <c r="D85" t="s">
         <v>252</v>
@@ -7493,7 +7493,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>254</v>
       </c>
@@ -7501,7 +7501,7 @@
         <v>1436</v>
       </c>
       <c r="C86" t="s">
-        <v>1516</v>
+        <v>1524</v>
       </c>
       <c r="D86" t="s">
         <v>255</v>
@@ -7510,7 +7510,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>257</v>
       </c>
@@ -7518,7 +7518,7 @@
         <v>1436</v>
       </c>
       <c r="C87" t="s">
-        <v>1517</v>
+        <v>1525</v>
       </c>
       <c r="D87" t="s">
         <v>258</v>
@@ -7527,7 +7527,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>260</v>
       </c>
@@ -7535,7 +7535,7 @@
         <v>1436</v>
       </c>
       <c r="C88" t="s">
-        <v>1497</v>
+        <v>1505</v>
       </c>
       <c r="D88" t="s">
         <v>261</v>
@@ -7544,7 +7544,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>263</v>
       </c>
@@ -7552,7 +7552,7 @@
         <v>1436</v>
       </c>
       <c r="C89" t="s">
-        <v>1518</v>
+        <v>1526</v>
       </c>
       <c r="D89" t="s">
         <v>264</v>
@@ -7561,7 +7561,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>266</v>
       </c>
@@ -7569,7 +7569,7 @@
         <v>1436</v>
       </c>
       <c r="C90" t="s">
-        <v>1519</v>
+        <v>1527</v>
       </c>
       <c r="D90" t="s">
         <v>267</v>
@@ -7578,7 +7578,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>269</v>
       </c>
@@ -7586,7 +7586,7 @@
         <v>1436</v>
       </c>
       <c r="C91" t="s">
-        <v>1520</v>
+        <v>1528</v>
       </c>
       <c r="D91" t="s">
         <v>270</v>
@@ -7595,7 +7595,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>272</v>
       </c>
@@ -7603,7 +7603,7 @@
         <v>1436</v>
       </c>
       <c r="C92" t="s">
-        <v>1521</v>
+        <v>1529</v>
       </c>
       <c r="D92" t="s">
         <v>273</v>
@@ -7612,7 +7612,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>275</v>
       </c>
@@ -7620,7 +7620,7 @@
         <v>1436</v>
       </c>
       <c r="C93" t="s">
-        <v>1522</v>
+        <v>1530</v>
       </c>
       <c r="D93" t="s">
         <v>276</v>
@@ -7629,7 +7629,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>278</v>
       </c>
@@ -7637,7 +7637,7 @@
         <v>1436</v>
       </c>
       <c r="C94" t="s">
-        <v>1523</v>
+        <v>1531</v>
       </c>
       <c r="D94" t="s">
         <v>279</v>
@@ -7646,7 +7646,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>281</v>
       </c>
@@ -7654,7 +7654,7 @@
         <v>1436</v>
       </c>
       <c r="C95" t="s">
-        <v>1524</v>
+        <v>1532</v>
       </c>
       <c r="D95" t="s">
         <v>282</v>
@@ -7663,7 +7663,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>284</v>
       </c>
@@ -7671,7 +7671,7 @@
         <v>1436</v>
       </c>
       <c r="C96" t="s">
-        <v>1525</v>
+        <v>1533</v>
       </c>
       <c r="D96" t="s">
         <v>285</v>
@@ -7680,7 +7680,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>287</v>
       </c>
@@ -7688,7 +7688,7 @@
         <v>1436</v>
       </c>
       <c r="C97" t="s">
-        <v>1526</v>
+        <v>1534</v>
       </c>
       <c r="D97" t="s">
         <v>288</v>
@@ -7697,7 +7697,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>290</v>
       </c>
@@ -7705,7 +7705,7 @@
         <v>1436</v>
       </c>
       <c r="C98" t="s">
-        <v>1527</v>
+        <v>1535</v>
       </c>
       <c r="D98" t="s">
         <v>291</v>
@@ -7714,7 +7714,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>293</v>
       </c>
@@ -7722,7 +7722,7 @@
         <v>1436</v>
       </c>
       <c r="C99" t="s">
-        <v>1528</v>
+        <v>1536</v>
       </c>
       <c r="D99" t="s">
         <v>294</v>
@@ -7731,7 +7731,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>296</v>
       </c>
@@ -7739,7 +7739,7 @@
         <v>1438</v>
       </c>
       <c r="C100" t="s">
-        <v>1529</v>
+        <v>1537</v>
       </c>
       <c r="D100" t="s">
         <v>297</v>
@@ -7748,7 +7748,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>299</v>
       </c>
@@ -7756,7 +7756,7 @@
         <v>1436</v>
       </c>
       <c r="C101" t="s">
-        <v>1530</v>
+        <v>1538</v>
       </c>
       <c r="D101" t="s">
         <v>300</v>
@@ -7765,7 +7765,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>302</v>
       </c>
@@ -7773,7 +7773,7 @@
         <v>1436</v>
       </c>
       <c r="C102" t="s">
-        <v>1531</v>
+        <v>1539</v>
       </c>
       <c r="D102" t="s">
         <v>303</v>
@@ -7782,7 +7782,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>305</v>
       </c>
@@ -7790,7 +7790,7 @@
         <v>1436</v>
       </c>
       <c r="C103" t="s">
-        <v>1532</v>
+        <v>1540</v>
       </c>
       <c r="D103" t="s">
         <v>306</v>
@@ -7799,7 +7799,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>308</v>
       </c>
@@ -7807,7 +7807,7 @@
         <v>1436</v>
       </c>
       <c r="C104" t="s">
-        <v>1533</v>
+        <v>1541</v>
       </c>
       <c r="D104" t="s">
         <v>309</v>
@@ -7816,7 +7816,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>311</v>
       </c>
@@ -7824,7 +7824,7 @@
         <v>1436</v>
       </c>
       <c r="C105" t="s">
-        <v>1534</v>
+        <v>1542</v>
       </c>
       <c r="D105" t="s">
         <v>312</v>
@@ -7833,7 +7833,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>314</v>
       </c>
@@ -7841,7 +7841,7 @@
         <v>1436</v>
       </c>
       <c r="C106" t="s">
-        <v>1535</v>
+        <v>1543</v>
       </c>
       <c r="D106" t="s">
         <v>315</v>
@@ -7850,7 +7850,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>317</v>
       </c>
@@ -7858,7 +7858,7 @@
         <v>1436</v>
       </c>
       <c r="C107" t="s">
-        <v>1536</v>
+        <v>1544</v>
       </c>
       <c r="D107" t="s">
         <v>318</v>
@@ -7867,7 +7867,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>319</v>
       </c>
@@ -7875,7 +7875,7 @@
         <v>1436</v>
       </c>
       <c r="C108" t="s">
-        <v>1537</v>
+        <v>1545</v>
       </c>
       <c r="D108" t="s">
         <v>320</v>
@@ -7884,7 +7884,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>322</v>
       </c>
@@ -7892,7 +7892,7 @@
         <v>1436</v>
       </c>
       <c r="C109" t="s">
-        <v>1538</v>
+        <v>1546</v>
       </c>
       <c r="D109" t="s">
         <v>323</v>
@@ -7901,7 +7901,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>325</v>
       </c>
@@ -7909,7 +7909,7 @@
         <v>1437</v>
       </c>
       <c r="C110" t="s">
-        <v>1539</v>
+        <v>1547</v>
       </c>
       <c r="D110" t="s">
         <v>326</v>
@@ -7918,7 +7918,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>328</v>
       </c>
@@ -7935,7 +7935,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>331</v>
       </c>
@@ -7943,7 +7943,7 @@
         <v>1436</v>
       </c>
       <c r="C112" t="s">
-        <v>1540</v>
+        <v>1548</v>
       </c>
       <c r="D112" t="s">
         <v>332</v>
@@ -7952,7 +7952,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>334</v>
       </c>
@@ -7960,7 +7960,7 @@
         <v>1437</v>
       </c>
       <c r="C113" t="s">
-        <v>1541</v>
+        <v>1549</v>
       </c>
       <c r="D113" t="s">
         <v>335</v>
@@ -7969,7 +7969,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>337</v>
       </c>
@@ -7977,7 +7977,7 @@
         <v>1437</v>
       </c>
       <c r="C114" t="s">
-        <v>1542</v>
+        <v>1550</v>
       </c>
       <c r="D114" t="s">
         <v>338</v>
@@ -7986,7 +7986,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>340</v>
       </c>
@@ -7994,7 +7994,7 @@
         <v>1437</v>
       </c>
       <c r="C115" t="s">
-        <v>1543</v>
+        <v>1551</v>
       </c>
       <c r="D115" t="s">
         <v>341</v>
@@ -8003,7 +8003,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>343</v>
       </c>
@@ -8011,7 +8011,7 @@
         <v>1437</v>
       </c>
       <c r="C116" t="s">
-        <v>1544</v>
+        <v>1552</v>
       </c>
       <c r="D116" t="s">
         <v>344</v>
@@ -8020,7 +8020,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>346</v>
       </c>
@@ -8028,7 +8028,7 @@
         <v>1437</v>
       </c>
       <c r="C117" t="s">
-        <v>1545</v>
+        <v>1553</v>
       </c>
       <c r="D117" t="s">
         <v>347</v>
@@ -8037,7 +8037,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>349</v>
       </c>
@@ -8045,7 +8045,7 @@
         <v>1437</v>
       </c>
       <c r="C118" t="s">
-        <v>1546</v>
+        <v>1554</v>
       </c>
       <c r="D118" t="s">
         <v>350</v>
@@ -8054,7 +8054,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>352</v>
       </c>
@@ -8062,7 +8062,7 @@
         <v>1437</v>
       </c>
       <c r="C119" t="s">
-        <v>1547</v>
+        <v>1555</v>
       </c>
       <c r="D119" t="s">
         <v>353</v>
@@ -8071,7 +8071,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>355</v>
       </c>
@@ -8079,7 +8079,7 @@
         <v>1437</v>
       </c>
       <c r="C120" t="s">
-        <v>1548</v>
+        <v>1556</v>
       </c>
       <c r="D120" t="s">
         <v>356</v>
@@ -8088,7 +8088,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>358</v>
       </c>
@@ -8096,7 +8096,7 @@
         <v>1437</v>
       </c>
       <c r="C121" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="D121" t="s">
         <v>359</v>
@@ -8105,7 +8105,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>361</v>
       </c>
@@ -8113,7 +8113,7 @@
         <v>1437</v>
       </c>
       <c r="C122" t="s">
-        <v>1549</v>
+        <v>1558</v>
       </c>
       <c r="D122" t="s">
         <v>362</v>
@@ -8122,7 +8122,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>364</v>
       </c>
@@ -8130,7 +8130,7 @@
         <v>1437</v>
       </c>
       <c r="C123" t="s">
-        <v>1550</v>
+        <v>1559</v>
       </c>
       <c r="D123" t="s">
         <v>365</v>
@@ -8139,7 +8139,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>367</v>
       </c>
@@ -8147,7 +8147,7 @@
         <v>1439</v>
       </c>
       <c r="C124" t="s">
-        <v>1876</v>
+        <v>1560</v>
       </c>
       <c r="D124" t="s">
         <v>368</v>
@@ -8156,7 +8156,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>370</v>
       </c>
@@ -8164,7 +8164,7 @@
         <v>1439</v>
       </c>
       <c r="C125" t="s">
-        <v>1546</v>
+        <v>1554</v>
       </c>
       <c r="D125" t="s">
         <v>371</v>
@@ -8173,7 +8173,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>373</v>
       </c>
@@ -8181,7 +8181,7 @@
         <v>1439</v>
       </c>
       <c r="C126" t="s">
-        <v>1551</v>
+        <v>1561</v>
       </c>
       <c r="D126" t="s">
         <v>374</v>
@@ -8190,7 +8190,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>376</v>
       </c>
@@ -8198,7 +8198,7 @@
         <v>1438</v>
       </c>
       <c r="C127" t="s">
-        <v>1878</v>
+        <v>1562</v>
       </c>
       <c r="D127" t="s">
         <v>377</v>
@@ -8207,7 +8207,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>379</v>
       </c>
@@ -8215,7 +8215,7 @@
         <v>1438</v>
       </c>
       <c r="C128" t="s">
-        <v>1584</v>
+        <v>1563</v>
       </c>
       <c r="D128" t="s">
         <v>380</v>
@@ -8224,7 +8224,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>382</v>
       </c>
@@ -8232,7 +8232,7 @@
         <v>1438</v>
       </c>
       <c r="C129" t="s">
-        <v>1553</v>
+        <v>1564</v>
       </c>
       <c r="D129" t="s">
         <v>383</v>
@@ -8241,7 +8241,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>385</v>
       </c>
@@ -8249,7 +8249,7 @@
         <v>1438</v>
       </c>
       <c r="C130" t="s">
-        <v>1554</v>
+        <v>1565</v>
       </c>
       <c r="D130" t="s">
         <v>386</v>
@@ -8258,7 +8258,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>388</v>
       </c>
@@ -8266,7 +8266,7 @@
         <v>1438</v>
       </c>
       <c r="C131" t="s">
-        <v>1562</v>
+        <v>1566</v>
       </c>
       <c r="D131" t="s">
         <v>389</v>
@@ -8275,7 +8275,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>391</v>
       </c>
@@ -8283,7 +8283,7 @@
         <v>1438</v>
       </c>
       <c r="C132" t="s">
-        <v>1556</v>
+        <v>1567</v>
       </c>
       <c r="D132" t="s">
         <v>392</v>
@@ -8292,7 +8292,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>394</v>
       </c>
@@ -8300,7 +8300,7 @@
         <v>1438</v>
       </c>
       <c r="C133" t="s">
-        <v>1881</v>
+        <v>1568</v>
       </c>
       <c r="D133" t="s">
         <v>395</v>
@@ -8309,7 +8309,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>397</v>
       </c>
@@ -8317,7 +8317,7 @@
         <v>1438</v>
       </c>
       <c r="C134" t="s">
-        <v>1563</v>
+        <v>1569</v>
       </c>
       <c r="D134" t="s">
         <v>398</v>
@@ -8326,7 +8326,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>400</v>
       </c>
@@ -8334,7 +8334,7 @@
         <v>1438</v>
       </c>
       <c r="C135" t="s">
-        <v>1557</v>
+        <v>1570</v>
       </c>
       <c r="D135" t="s">
         <v>401</v>
@@ -8343,7 +8343,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>403</v>
       </c>
@@ -8351,7 +8351,7 @@
         <v>1438</v>
       </c>
       <c r="C136" t="s">
-        <v>1558</v>
+        <v>1571</v>
       </c>
       <c r="D136" t="s">
         <v>404</v>
@@ -8360,7 +8360,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>406</v>
       </c>
@@ -8368,7 +8368,7 @@
         <v>1438</v>
       </c>
       <c r="C137" t="s">
-        <v>1559</v>
+        <v>1572</v>
       </c>
       <c r="D137" t="s">
         <v>407</v>
@@ -8377,7 +8377,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>409</v>
       </c>
@@ -8385,7 +8385,7 @@
         <v>1438</v>
       </c>
       <c r="C138" t="s">
-        <v>1560</v>
+        <v>1573</v>
       </c>
       <c r="D138" t="s">
         <v>410</v>
@@ -8394,7 +8394,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>412</v>
       </c>
@@ -8402,7 +8402,7 @@
         <v>1438</v>
       </c>
       <c r="C139" t="s">
-        <v>1561</v>
+        <v>1574</v>
       </c>
       <c r="D139" t="s">
         <v>413</v>
@@ -8411,7 +8411,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>415</v>
       </c>
@@ -8419,7 +8419,7 @@
         <v>1440</v>
       </c>
       <c r="C140" t="s">
-        <v>1564</v>
+        <v>1575</v>
       </c>
       <c r="D140" t="s">
         <v>416</v>
@@ -8428,7 +8428,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>418</v>
       </c>
@@ -8436,7 +8436,7 @@
         <v>1440</v>
       </c>
       <c r="C141" t="s">
-        <v>1565</v>
+        <v>1576</v>
       </c>
       <c r="D141" t="s">
         <v>419</v>
@@ -8445,7 +8445,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>421</v>
       </c>
@@ -8453,7 +8453,7 @@
         <v>1436</v>
       </c>
       <c r="C142" t="s">
-        <v>1566</v>
+        <v>1577</v>
       </c>
       <c r="D142" t="s">
         <v>99</v>
@@ -8462,7 +8462,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>423</v>
       </c>
@@ -8470,7 +8470,7 @@
         <v>1436</v>
       </c>
       <c r="C143" t="s">
-        <v>1567</v>
+        <v>1578</v>
       </c>
       <c r="D143" t="s">
         <v>424</v>
@@ -8479,7 +8479,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>426</v>
       </c>
@@ -8487,7 +8487,7 @@
         <v>1436</v>
       </c>
       <c r="C144" t="s">
-        <v>1568</v>
+        <v>1579</v>
       </c>
       <c r="D144" t="s">
         <v>427</v>
@@ -8496,7 +8496,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>429</v>
       </c>
@@ -8504,7 +8504,7 @@
         <v>1436</v>
       </c>
       <c r="C145" t="s">
-        <v>1569</v>
+        <v>1580</v>
       </c>
       <c r="D145" t="s">
         <v>430</v>
@@ -8513,7 +8513,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>432</v>
       </c>
@@ -8521,7 +8521,7 @@
         <v>1436</v>
       </c>
       <c r="C146" t="s">
-        <v>1570</v>
+        <v>1581</v>
       </c>
       <c r="D146" t="s">
         <v>433</v>
@@ -8530,7 +8530,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>435</v>
       </c>
@@ -8538,7 +8538,7 @@
         <v>1436</v>
       </c>
       <c r="C147" t="s">
-        <v>1571</v>
+        <v>1582</v>
       </c>
       <c r="D147" t="s">
         <v>436</v>
@@ -8547,7 +8547,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>438</v>
       </c>
@@ -8555,7 +8555,7 @@
         <v>1436</v>
       </c>
       <c r="C148" t="s">
-        <v>1572</v>
+        <v>1583</v>
       </c>
       <c r="D148" t="s">
         <v>439</v>
@@ -8564,7 +8564,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>441</v>
       </c>
@@ -8572,7 +8572,7 @@
         <v>1436</v>
       </c>
       <c r="C149" t="s">
-        <v>1573</v>
+        <v>1584</v>
       </c>
       <c r="D149" t="s">
         <v>442</v>
@@ -8581,7 +8581,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>444</v>
       </c>
@@ -8589,7 +8589,7 @@
         <v>1436</v>
       </c>
       <c r="C150" t="s">
-        <v>1574</v>
+        <v>1585</v>
       </c>
       <c r="D150" t="s">
         <v>445</v>
@@ -8598,7 +8598,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>447</v>
       </c>
@@ -8606,7 +8606,7 @@
         <v>1436</v>
       </c>
       <c r="C151" t="s">
-        <v>1575</v>
+        <v>1586</v>
       </c>
       <c r="D151" t="s">
         <v>448</v>
@@ -8615,7 +8615,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>450</v>
       </c>
@@ -8623,7 +8623,7 @@
         <v>1436</v>
       </c>
       <c r="C152" t="s">
-        <v>1576</v>
+        <v>1587</v>
       </c>
       <c r="D152" t="s">
         <v>451</v>
@@ -8632,7 +8632,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>453</v>
       </c>
@@ -8640,7 +8640,7 @@
         <v>1436</v>
       </c>
       <c r="C153" t="s">
-        <v>1577</v>
+        <v>1588</v>
       </c>
       <c r="D153" t="s">
         <v>454</v>
@@ -8649,7 +8649,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>456</v>
       </c>
@@ -8657,7 +8657,7 @@
         <v>1436</v>
       </c>
       <c r="C154" t="s">
-        <v>1578</v>
+        <v>1589</v>
       </c>
       <c r="D154" t="s">
         <v>457</v>
@@ -8666,7 +8666,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>459</v>
       </c>
@@ -8674,7 +8674,7 @@
         <v>1436</v>
       </c>
       <c r="C155" t="s">
-        <v>1552</v>
+        <v>1590</v>
       </c>
       <c r="D155" t="s">
         <v>460</v>
@@ -8683,7 +8683,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>462</v>
       </c>
@@ -8691,7 +8691,7 @@
         <v>1436</v>
       </c>
       <c r="C156" t="s">
-        <v>1579</v>
+        <v>1591</v>
       </c>
       <c r="D156" t="s">
         <v>463</v>
@@ -8700,7 +8700,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>465</v>
       </c>
@@ -8708,7 +8708,7 @@
         <v>1436</v>
       </c>
       <c r="C157" t="s">
-        <v>1580</v>
+        <v>1592</v>
       </c>
       <c r="D157" t="s">
         <v>466</v>
@@ -8717,7 +8717,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>468</v>
       </c>
@@ -8725,7 +8725,7 @@
         <v>1436</v>
       </c>
       <c r="C158" t="s">
-        <v>1583</v>
+        <v>1593</v>
       </c>
       <c r="D158" t="s">
         <v>469</v>
@@ -8734,7 +8734,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>471</v>
       </c>
@@ -8742,7 +8742,7 @@
         <v>1436</v>
       </c>
       <c r="C159" t="s">
-        <v>1581</v>
+        <v>1594</v>
       </c>
       <c r="D159" t="s">
         <v>472</v>
@@ -8751,7 +8751,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>474</v>
       </c>
@@ -8759,7 +8759,7 @@
         <v>1436</v>
       </c>
       <c r="C160" t="s">
-        <v>1582</v>
+        <v>1595</v>
       </c>
       <c r="D160" t="s">
         <v>475</v>
@@ -8768,7 +8768,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>477</v>
       </c>
@@ -8776,7 +8776,7 @@
         <v>1436</v>
       </c>
       <c r="C161" t="s">
-        <v>1585</v>
+        <v>1596</v>
       </c>
       <c r="D161" t="s">
         <v>478</v>
@@ -8785,7 +8785,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>480</v>
       </c>
@@ -8793,7 +8793,7 @@
         <v>1436</v>
       </c>
       <c r="C162" t="s">
-        <v>1586</v>
+        <v>1597</v>
       </c>
       <c r="D162" t="s">
         <v>481</v>
@@ -8802,7 +8802,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>483</v>
       </c>
@@ -8810,7 +8810,7 @@
         <v>1436</v>
       </c>
       <c r="C163" t="s">
-        <v>1587</v>
+        <v>1598</v>
       </c>
       <c r="D163" t="s">
         <v>484</v>
@@ -8819,7 +8819,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>486</v>
       </c>
@@ -8827,7 +8827,7 @@
         <v>1436</v>
       </c>
       <c r="C164" t="s">
-        <v>1888</v>
+        <v>1599</v>
       </c>
       <c r="D164" t="s">
         <v>487</v>
@@ -8836,7 +8836,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>489</v>
       </c>
@@ -8844,7 +8844,7 @@
         <v>1436</v>
       </c>
       <c r="C165" t="s">
-        <v>1588</v>
+        <v>1600</v>
       </c>
       <c r="D165" t="s">
         <v>490</v>
@@ -8853,7 +8853,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>492</v>
       </c>
@@ -8861,7 +8861,7 @@
         <v>1436</v>
       </c>
       <c r="C166" t="s">
-        <v>1589</v>
+        <v>1601</v>
       </c>
       <c r="D166" t="s">
         <v>493</v>
@@ -8870,7 +8870,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>495</v>
       </c>
@@ -8878,7 +8878,7 @@
         <v>1436</v>
       </c>
       <c r="C167" t="s">
-        <v>1590</v>
+        <v>1602</v>
       </c>
       <c r="D167" t="s">
         <v>496</v>
@@ -8887,7 +8887,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>498</v>
       </c>
@@ -8895,7 +8895,7 @@
         <v>1436</v>
       </c>
       <c r="C168" t="s">
-        <v>1591</v>
+        <v>1603</v>
       </c>
       <c r="D168" t="s">
         <v>499</v>
@@ -8904,7 +8904,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>501</v>
       </c>
@@ -8912,7 +8912,7 @@
         <v>1436</v>
       </c>
       <c r="C169" t="s">
-        <v>1874</v>
+        <v>1604</v>
       </c>
       <c r="D169" t="s">
         <v>502</v>
@@ -8921,7 +8921,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>504</v>
       </c>
@@ -8929,7 +8929,7 @@
         <v>1436</v>
       </c>
       <c r="C170" t="s">
-        <v>1592</v>
+        <v>1605</v>
       </c>
       <c r="D170" t="s">
         <v>505</v>
@@ -8938,7 +8938,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>507</v>
       </c>
@@ -8946,7 +8946,7 @@
         <v>1436</v>
       </c>
       <c r="C171" t="s">
-        <v>1593</v>
+        <v>1606</v>
       </c>
       <c r="D171" t="s">
         <v>508</v>
@@ -8955,7 +8955,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>510</v>
       </c>
@@ -8963,7 +8963,7 @@
         <v>1436</v>
       </c>
       <c r="C172" t="s">
-        <v>1594</v>
+        <v>1607</v>
       </c>
       <c r="D172" t="s">
         <v>511</v>
@@ -8972,7 +8972,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>513</v>
       </c>
@@ -8980,7 +8980,7 @@
         <v>1436</v>
       </c>
       <c r="C173" t="s">
-        <v>1595</v>
+        <v>1608</v>
       </c>
       <c r="D173" t="s">
         <v>514</v>
@@ -8989,7 +8989,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>516</v>
       </c>
@@ -8997,7 +8997,7 @@
         <v>1436</v>
       </c>
       <c r="C174" t="s">
-        <v>1596</v>
+        <v>1609</v>
       </c>
       <c r="D174" t="s">
         <v>517</v>
@@ -9006,7 +9006,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>519</v>
       </c>
@@ -9014,7 +9014,7 @@
         <v>1436</v>
       </c>
       <c r="C175" t="s">
-        <v>1597</v>
+        <v>1610</v>
       </c>
       <c r="D175" t="s">
         <v>520</v>
@@ -9023,7 +9023,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>522</v>
       </c>
@@ -9031,7 +9031,7 @@
         <v>1436</v>
       </c>
       <c r="C176" t="s">
-        <v>1879</v>
+        <v>1611</v>
       </c>
       <c r="D176" t="s">
         <v>45</v>
@@ -9040,7 +9040,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>524</v>
       </c>
@@ -9048,7 +9048,7 @@
         <v>1436</v>
       </c>
       <c r="C177" t="s">
-        <v>1598</v>
+        <v>1612</v>
       </c>
       <c r="D177" t="s">
         <v>525</v>
@@ -9057,7 +9057,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>527</v>
       </c>
@@ -9065,7 +9065,7 @@
         <v>1436</v>
       </c>
       <c r="C178" t="s">
-        <v>1599</v>
+        <v>1613</v>
       </c>
       <c r="D178" t="s">
         <v>528</v>
@@ -9074,7 +9074,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>530</v>
       </c>
@@ -9082,7 +9082,7 @@
         <v>1436</v>
       </c>
       <c r="C179" t="s">
-        <v>1600</v>
+        <v>1614</v>
       </c>
       <c r="D179" t="s">
         <v>531</v>
@@ -9091,7 +9091,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>533</v>
       </c>
@@ -9099,7 +9099,7 @@
         <v>1436</v>
       </c>
       <c r="C180" t="s">
-        <v>1601</v>
+        <v>1615</v>
       </c>
       <c r="D180" t="s">
         <v>534</v>
@@ -9108,7 +9108,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>536</v>
       </c>
@@ -9116,7 +9116,7 @@
         <v>1436</v>
       </c>
       <c r="C181" t="s">
-        <v>1602</v>
+        <v>1616</v>
       </c>
       <c r="D181" t="s">
         <v>537</v>
@@ -9125,7 +9125,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>539</v>
       </c>
@@ -9133,7 +9133,7 @@
         <v>1436</v>
       </c>
       <c r="C182" t="s">
-        <v>1603</v>
+        <v>1617</v>
       </c>
       <c r="D182" t="s">
         <v>540</v>
@@ -9142,7 +9142,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>542</v>
       </c>
@@ -9150,7 +9150,7 @@
         <v>1436</v>
       </c>
       <c r="C183" t="s">
-        <v>1611</v>
+        <v>1618</v>
       </c>
       <c r="D183" t="s">
         <v>543</v>
@@ -9159,7 +9159,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>545</v>
       </c>
@@ -9167,7 +9167,7 @@
         <v>1436</v>
       </c>
       <c r="C184" t="s">
-        <v>1604</v>
+        <v>1619</v>
       </c>
       <c r="D184" t="s">
         <v>546</v>
@@ -9176,7 +9176,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>548</v>
       </c>
@@ -9184,7 +9184,7 @@
         <v>1436</v>
       </c>
       <c r="C185" t="s">
-        <v>1605</v>
+        <v>1620</v>
       </c>
       <c r="D185" t="s">
         <v>549</v>
@@ -9193,7 +9193,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>551</v>
       </c>
@@ -9201,7 +9201,7 @@
         <v>1436</v>
       </c>
       <c r="C186" t="s">
-        <v>1606</v>
+        <v>1621</v>
       </c>
       <c r="D186" t="s">
         <v>552</v>
@@ -9210,7 +9210,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>554</v>
       </c>
@@ -9218,7 +9218,7 @@
         <v>1436</v>
       </c>
       <c r="C187" t="s">
-        <v>1607</v>
+        <v>1622</v>
       </c>
       <c r="D187" t="s">
         <v>555</v>
@@ -9227,7 +9227,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>557</v>
       </c>
@@ -9235,7 +9235,7 @@
         <v>1436</v>
       </c>
       <c r="C188" t="s">
-        <v>1608</v>
+        <v>1623</v>
       </c>
       <c r="D188" t="s">
         <v>558</v>
@@ -9244,7 +9244,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>560</v>
       </c>
@@ -9252,7 +9252,7 @@
         <v>1436</v>
       </c>
       <c r="C189" t="s">
-        <v>1609</v>
+        <v>1624</v>
       </c>
       <c r="D189" t="s">
         <v>561</v>
@@ -9261,7 +9261,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>563</v>
       </c>
@@ -9269,7 +9269,7 @@
         <v>1436</v>
       </c>
       <c r="C190" t="s">
-        <v>1610</v>
+        <v>1625</v>
       </c>
       <c r="D190" t="s">
         <v>564</v>
@@ -9278,7 +9278,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>566</v>
       </c>
@@ -9286,7 +9286,7 @@
         <v>1436</v>
       </c>
       <c r="C191" t="s">
-        <v>1612</v>
+        <v>1626</v>
       </c>
       <c r="D191" t="s">
         <v>567</v>
@@ -9295,7 +9295,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>569</v>
       </c>
@@ -9303,7 +9303,7 @@
         <v>1436</v>
       </c>
       <c r="C192" t="s">
-        <v>1613</v>
+        <v>1627</v>
       </c>
       <c r="D192" t="s">
         <v>570</v>
@@ -9312,7 +9312,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>572</v>
       </c>
@@ -9320,7 +9320,7 @@
         <v>1436</v>
       </c>
       <c r="C193" t="s">
-        <v>1614</v>
+        <v>1628</v>
       </c>
       <c r="D193" t="s">
         <v>573</v>
@@ -9329,7 +9329,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>575</v>
       </c>
@@ -9337,7 +9337,7 @@
         <v>1436</v>
       </c>
       <c r="C194" t="s">
-        <v>1615</v>
+        <v>1629</v>
       </c>
       <c r="D194" t="s">
         <v>576</v>
@@ -9346,7 +9346,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>578</v>
       </c>
@@ -9354,7 +9354,7 @@
         <v>1436</v>
       </c>
       <c r="C195" t="s">
-        <v>1616</v>
+        <v>1630</v>
       </c>
       <c r="D195" t="s">
         <v>579</v>
@@ -9363,7 +9363,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>581</v>
       </c>
@@ -9371,7 +9371,7 @@
         <v>1436</v>
       </c>
       <c r="C196" t="s">
-        <v>1617</v>
+        <v>1631</v>
       </c>
       <c r="D196" t="s">
         <v>582</v>
@@ -9380,7 +9380,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>584</v>
       </c>
@@ -9388,7 +9388,7 @@
         <v>1436</v>
       </c>
       <c r="C197" t="s">
-        <v>1618</v>
+        <v>1632</v>
       </c>
       <c r="D197" t="s">
         <v>585</v>
@@ -9397,7 +9397,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>587</v>
       </c>
@@ -9405,7 +9405,7 @@
         <v>1436</v>
       </c>
       <c r="C198" t="s">
-        <v>1619</v>
+        <v>1633</v>
       </c>
       <c r="D198" t="s">
         <v>588</v>
@@ -9414,7 +9414,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>590</v>
       </c>
@@ -9422,7 +9422,7 @@
         <v>1436</v>
       </c>
       <c r="C199" t="s">
-        <v>1620</v>
+        <v>1634</v>
       </c>
       <c r="D199" t="s">
         <v>591</v>
@@ -9431,7 +9431,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>593</v>
       </c>
@@ -9439,7 +9439,7 @@
         <v>1436</v>
       </c>
       <c r="C200" t="s">
-        <v>1621</v>
+        <v>1635</v>
       </c>
       <c r="D200" t="s">
         <v>594</v>
@@ -9448,7 +9448,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>596</v>
       </c>
@@ -9456,7 +9456,7 @@
         <v>1436</v>
       </c>
       <c r="C201" t="s">
-        <v>1622</v>
+        <v>1636</v>
       </c>
       <c r="D201" t="s">
         <v>597</v>
@@ -9465,7 +9465,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>599</v>
       </c>
@@ -9473,7 +9473,7 @@
         <v>1436</v>
       </c>
       <c r="C202" t="s">
-        <v>1623</v>
+        <v>1637</v>
       </c>
       <c r="D202" t="s">
         <v>600</v>
@@ -9482,7 +9482,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>602</v>
       </c>
@@ -9490,7 +9490,7 @@
         <v>1436</v>
       </c>
       <c r="C203" t="s">
-        <v>1624</v>
+        <v>1638</v>
       </c>
       <c r="D203" t="s">
         <v>603</v>
@@ -9499,7 +9499,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>605</v>
       </c>
@@ -9507,7 +9507,7 @@
         <v>1436</v>
       </c>
       <c r="C204" t="s">
-        <v>1625</v>
+        <v>1639</v>
       </c>
       <c r="D204" t="s">
         <v>606</v>
@@ -9516,7 +9516,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>608</v>
       </c>
@@ -9524,7 +9524,7 @@
         <v>1436</v>
       </c>
       <c r="C205" t="s">
-        <v>1626</v>
+        <v>1640</v>
       </c>
       <c r="D205" t="s">
         <v>609</v>
@@ -9533,7 +9533,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>611</v>
       </c>
@@ -9550,7 +9550,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>614</v>
       </c>
@@ -9558,7 +9558,7 @@
         <v>1436</v>
       </c>
       <c r="C207" t="s">
-        <v>1630</v>
+        <v>1641</v>
       </c>
       <c r="D207" t="s">
         <v>615</v>
@@ -9567,7 +9567,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>617</v>
       </c>
@@ -9575,7 +9575,7 @@
         <v>1436</v>
       </c>
       <c r="C208" t="s">
-        <v>1627</v>
+        <v>1642</v>
       </c>
       <c r="D208" t="s">
         <v>618</v>
@@ -9584,7 +9584,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>620</v>
       </c>
@@ -9592,7 +9592,7 @@
         <v>1436</v>
       </c>
       <c r="C209" t="s">
-        <v>1628</v>
+        <v>1643</v>
       </c>
       <c r="D209" t="s">
         <v>621</v>
@@ -9601,7 +9601,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>623</v>
       </c>
@@ -9609,7 +9609,7 @@
         <v>1436</v>
       </c>
       <c r="C210" t="s">
-        <v>1629</v>
+        <v>1644</v>
       </c>
       <c r="D210" t="s">
         <v>624</v>
@@ -9618,7 +9618,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>626</v>
       </c>
@@ -9626,7 +9626,7 @@
         <v>1436</v>
       </c>
       <c r="C211" t="s">
-        <v>1631</v>
+        <v>1645</v>
       </c>
       <c r="D211" t="s">
         <v>627</v>
@@ -9635,7 +9635,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>629</v>
       </c>
@@ -9643,7 +9643,7 @@
         <v>1436</v>
       </c>
       <c r="C212" t="s">
-        <v>1632</v>
+        <v>1646</v>
       </c>
       <c r="D212" t="s">
         <v>630</v>
@@ -9652,7 +9652,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>632</v>
       </c>
@@ -9660,7 +9660,7 @@
         <v>1436</v>
       </c>
       <c r="C213" t="s">
-        <v>1633</v>
+        <v>1647</v>
       </c>
       <c r="D213" t="s">
         <v>633</v>
@@ -9669,7 +9669,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>635</v>
       </c>
@@ -9677,7 +9677,7 @@
         <v>1436</v>
       </c>
       <c r="C214" t="s">
-        <v>1634</v>
+        <v>1648</v>
       </c>
       <c r="D214" t="s">
         <v>636</v>
@@ -9686,7 +9686,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>638</v>
       </c>
@@ -9694,7 +9694,7 @@
         <v>1436</v>
       </c>
       <c r="C215" t="s">
-        <v>1635</v>
+        <v>1649</v>
       </c>
       <c r="D215" t="s">
         <v>639</v>
@@ -9703,7 +9703,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>641</v>
       </c>
@@ -9711,7 +9711,7 @@
         <v>1436</v>
       </c>
       <c r="C216" t="s">
-        <v>1636</v>
+        <v>1650</v>
       </c>
       <c r="D216" t="s">
         <v>642</v>
@@ -9720,7 +9720,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>644</v>
       </c>
@@ -9728,7 +9728,7 @@
         <v>1436</v>
       </c>
       <c r="C217" t="s">
-        <v>1637</v>
+        <v>1651</v>
       </c>
       <c r="D217" t="s">
         <v>645</v>
@@ -9737,7 +9737,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>647</v>
       </c>
@@ -9745,7 +9745,7 @@
         <v>1436</v>
       </c>
       <c r="C218" t="s">
-        <v>1638</v>
+        <v>1652</v>
       </c>
       <c r="D218" t="s">
         <v>648</v>
@@ -9754,7 +9754,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>650</v>
       </c>
@@ -9762,7 +9762,7 @@
         <v>1436</v>
       </c>
       <c r="C219" t="s">
-        <v>1639</v>
+        <v>1653</v>
       </c>
       <c r="D219" t="s">
         <v>651</v>
@@ -9771,7 +9771,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>653</v>
       </c>
@@ -9779,7 +9779,7 @@
         <v>1437</v>
       </c>
       <c r="C220" t="s">
-        <v>1640</v>
+        <v>1654</v>
       </c>
       <c r="D220" t="s">
         <v>654</v>
@@ -9788,7 +9788,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>656</v>
       </c>
@@ -9796,7 +9796,7 @@
         <v>1437</v>
       </c>
       <c r="C221" t="s">
-        <v>1641</v>
+        <v>1655</v>
       </c>
       <c r="D221" t="s">
         <v>657</v>
@@ -9805,7 +9805,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>659</v>
       </c>
@@ -9813,7 +9813,7 @@
         <v>1441</v>
       </c>
       <c r="C222" t="s">
-        <v>1642</v>
+        <v>1656</v>
       </c>
       <c r="D222" t="s">
         <v>660</v>
@@ -9822,7 +9822,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>662</v>
       </c>
@@ -9830,7 +9830,7 @@
         <v>1441</v>
       </c>
       <c r="C223" t="s">
-        <v>1889</v>
+        <v>1657</v>
       </c>
       <c r="D223" t="s">
         <v>663</v>
@@ -9839,7 +9839,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>665</v>
       </c>
@@ -9847,7 +9847,7 @@
         <v>1437</v>
       </c>
       <c r="C224" t="s">
-        <v>1889</v>
+        <v>1657</v>
       </c>
       <c r="D224" t="s">
         <v>666</v>
@@ -9856,7 +9856,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>668</v>
       </c>
@@ -9864,7 +9864,7 @@
         <v>1438</v>
       </c>
       <c r="C225" t="s">
-        <v>1643</v>
+        <v>1658</v>
       </c>
       <c r="D225" t="s">
         <v>669</v>
@@ -9873,7 +9873,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>671</v>
       </c>
@@ -9881,7 +9881,7 @@
         <v>1438</v>
       </c>
       <c r="C226" t="s">
-        <v>1644</v>
+        <v>1659</v>
       </c>
       <c r="D226" t="s">
         <v>672</v>
@@ -9890,7 +9890,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>674</v>
       </c>
@@ -9898,7 +9898,7 @@
         <v>1438</v>
       </c>
       <c r="C227" t="s">
-        <v>1645</v>
+        <v>1660</v>
       </c>
       <c r="D227" t="s">
         <v>675</v>
@@ -9907,7 +9907,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>677</v>
       </c>
@@ -9915,7 +9915,7 @@
         <v>1438</v>
       </c>
       <c r="C228" t="s">
-        <v>1580</v>
+        <v>1592</v>
       </c>
       <c r="D228" t="s">
         <v>678</v>
@@ -9924,7 +9924,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>680</v>
       </c>
@@ -9932,7 +9932,7 @@
         <v>1441</v>
       </c>
       <c r="C229" t="s">
-        <v>1646</v>
+        <v>1661</v>
       </c>
       <c r="D229" t="s">
         <v>681</v>
@@ -9941,7 +9941,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>683</v>
       </c>
@@ -9949,7 +9949,7 @@
         <v>1441</v>
       </c>
       <c r="C230" t="s">
-        <v>1647</v>
+        <v>1662</v>
       </c>
       <c r="D230" t="s">
         <v>684</v>
@@ -9958,7 +9958,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>686</v>
       </c>
@@ -9975,7 +9975,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>689</v>
       </c>
@@ -9983,7 +9983,7 @@
         <v>1436</v>
       </c>
       <c r="C232" t="s">
-        <v>1648</v>
+        <v>1663</v>
       </c>
       <c r="D232" t="s">
         <v>690</v>
@@ -9992,7 +9992,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>692</v>
       </c>
@@ -10009,7 +10009,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>695</v>
       </c>
@@ -10017,7 +10017,7 @@
         <v>1436</v>
       </c>
       <c r="C234" t="s">
-        <v>1649</v>
+        <v>1664</v>
       </c>
       <c r="D234" t="s">
         <v>696</v>
@@ -10026,7 +10026,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>698</v>
       </c>
@@ -10043,7 +10043,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>701</v>
       </c>
@@ -10051,7 +10051,7 @@
         <v>1436</v>
       </c>
       <c r="C236" t="s">
-        <v>1650</v>
+        <v>1665</v>
       </c>
       <c r="D236" t="s">
         <v>702</v>
@@ -10060,7 +10060,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>704</v>
       </c>
@@ -10068,7 +10068,7 @@
         <v>1436</v>
       </c>
       <c r="C237" t="s">
-        <v>1651</v>
+        <v>1666</v>
       </c>
       <c r="D237" t="s">
         <v>705</v>
@@ -10077,7 +10077,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>707</v>
       </c>
@@ -10085,7 +10085,7 @@
         <v>1436</v>
       </c>
       <c r="C238" t="s">
-        <v>1877</v>
+        <v>1667</v>
       </c>
       <c r="D238" t="s">
         <v>708</v>
@@ -10094,7 +10094,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>710</v>
       </c>
@@ -10102,7 +10102,7 @@
         <v>1436</v>
       </c>
       <c r="C239" t="s">
-        <v>1652</v>
+        <v>1668</v>
       </c>
       <c r="D239" t="s">
         <v>711</v>
@@ -10111,7 +10111,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>713</v>
       </c>
@@ -10119,7 +10119,7 @@
         <v>1436</v>
       </c>
       <c r="C240" t="s">
-        <v>1653</v>
+        <v>1669</v>
       </c>
       <c r="D240" t="s">
         <v>714</v>
@@ -10128,7 +10128,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>716</v>
       </c>
@@ -10136,7 +10136,7 @@
         <v>1436</v>
       </c>
       <c r="C241" t="s">
-        <v>1654</v>
+        <v>1670</v>
       </c>
       <c r="D241" t="s">
         <v>717</v>
@@ -10145,7 +10145,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>719</v>
       </c>
@@ -10153,7 +10153,7 @@
         <v>1436</v>
       </c>
       <c r="C242" t="s">
-        <v>1655</v>
+        <v>1671</v>
       </c>
       <c r="D242" t="s">
         <v>720</v>
@@ -10162,7 +10162,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>722</v>
       </c>
@@ -10170,7 +10170,7 @@
         <v>1436</v>
       </c>
       <c r="C243" t="s">
-        <v>1656</v>
+        <v>1672</v>
       </c>
       <c r="D243" t="s">
         <v>723</v>
@@ -10179,7 +10179,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>725</v>
       </c>
@@ -10187,7 +10187,7 @@
         <v>1436</v>
       </c>
       <c r="C244" t="s">
-        <v>1657</v>
+        <v>1673</v>
       </c>
       <c r="D244" t="s">
         <v>726</v>
@@ -10196,7 +10196,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>728</v>
       </c>
@@ -10204,7 +10204,7 @@
         <v>1436</v>
       </c>
       <c r="C245" t="s">
-        <v>1658</v>
+        <v>1674</v>
       </c>
       <c r="D245" t="s">
         <v>729</v>
@@ -10213,7 +10213,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>731</v>
       </c>
@@ -10221,7 +10221,7 @@
         <v>1436</v>
       </c>
       <c r="C246" t="s">
-        <v>1661</v>
+        <v>1675</v>
       </c>
       <c r="D246" t="s">
         <v>732</v>
@@ -10230,7 +10230,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>734</v>
       </c>
@@ -10238,7 +10238,7 @@
         <v>1436</v>
       </c>
       <c r="C247" t="s">
-        <v>1662</v>
+        <v>1676</v>
       </c>
       <c r="D247" t="s">
         <v>735</v>
@@ -10247,7 +10247,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>737</v>
       </c>
@@ -10255,7 +10255,7 @@
         <v>1436</v>
       </c>
       <c r="C248" t="s">
-        <v>1663</v>
+        <v>1677</v>
       </c>
       <c r="D248" t="s">
         <v>738</v>
@@ -10264,7 +10264,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>740</v>
       </c>
@@ -10272,7 +10272,7 @@
         <v>1436</v>
       </c>
       <c r="C249" t="s">
-        <v>1659</v>
+        <v>1678</v>
       </c>
       <c r="D249" t="s">
         <v>741</v>
@@ -10281,7 +10281,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>743</v>
       </c>
@@ -10289,7 +10289,7 @@
         <v>1436</v>
       </c>
       <c r="C250" t="s">
-        <v>1660</v>
+        <v>1679</v>
       </c>
       <c r="D250" t="s">
         <v>744</v>
@@ -10298,7 +10298,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>746</v>
       </c>
@@ -10306,7 +10306,7 @@
         <v>1436</v>
       </c>
       <c r="C251" t="s">
-        <v>1664</v>
+        <v>1680</v>
       </c>
       <c r="D251" t="s">
         <v>747</v>
@@ -10315,7 +10315,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>749</v>
       </c>
@@ -10323,7 +10323,7 @@
         <v>1436</v>
       </c>
       <c r="C252" t="s">
-        <v>1665</v>
+        <v>1681</v>
       </c>
       <c r="D252" t="s">
         <v>750</v>
@@ -10332,7 +10332,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>752</v>
       </c>
@@ -10340,7 +10340,7 @@
         <v>1436</v>
       </c>
       <c r="C253" t="s">
-        <v>1666</v>
+        <v>1682</v>
       </c>
       <c r="D253" t="s">
         <v>753</v>
@@ -10349,7 +10349,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>755</v>
       </c>
@@ -10357,7 +10357,7 @@
         <v>1436</v>
       </c>
       <c r="C254" t="s">
-        <v>1667</v>
+        <v>1683</v>
       </c>
       <c r="D254" t="s">
         <v>756</v>
@@ -10366,7 +10366,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>758</v>
       </c>
@@ -10374,7 +10374,7 @@
         <v>1436</v>
       </c>
       <c r="C255" t="s">
-        <v>1668</v>
+        <v>1684</v>
       </c>
       <c r="D255" t="s">
         <v>759</v>
@@ -10383,7 +10383,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>761</v>
       </c>
@@ -10391,7 +10391,7 @@
         <v>1436</v>
       </c>
       <c r="C256" t="s">
-        <v>1669</v>
+        <v>1685</v>
       </c>
       <c r="D256" t="s">
         <v>762</v>
@@ -10400,7 +10400,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>764</v>
       </c>
@@ -10408,7 +10408,7 @@
         <v>1436</v>
       </c>
       <c r="C257" t="s">
-        <v>1670</v>
+        <v>1686</v>
       </c>
       <c r="D257" t="s">
         <v>765</v>
@@ -10417,7 +10417,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>767</v>
       </c>
@@ -10425,7 +10425,7 @@
         <v>1436</v>
       </c>
       <c r="C258" t="s">
-        <v>1671</v>
+        <v>1687</v>
       </c>
       <c r="D258" t="s">
         <v>768</v>
@@ -10434,7 +10434,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>770</v>
       </c>
@@ -10442,7 +10442,7 @@
         <v>1436</v>
       </c>
       <c r="C259" t="s">
-        <v>1672</v>
+        <v>1688</v>
       </c>
       <c r="D259" t="s">
         <v>771</v>
@@ -10451,7 +10451,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>773</v>
       </c>
@@ -10459,7 +10459,7 @@
         <v>1436</v>
       </c>
       <c r="C260" t="s">
-        <v>1673</v>
+        <v>1689</v>
       </c>
       <c r="D260" t="s">
         <v>774</v>
@@ -10468,7 +10468,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>776</v>
       </c>
@@ -10476,7 +10476,7 @@
         <v>1436</v>
       </c>
       <c r="C261" t="s">
-        <v>1674</v>
+        <v>1690</v>
       </c>
       <c r="D261" t="s">
         <v>777</v>
@@ -10485,7 +10485,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>779</v>
       </c>
@@ -10493,7 +10493,7 @@
         <v>1436</v>
       </c>
       <c r="C262" t="s">
-        <v>1675</v>
+        <v>1691</v>
       </c>
       <c r="D262" t="s">
         <v>780</v>
@@ -10502,7 +10502,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>782</v>
       </c>
@@ -10510,7 +10510,7 @@
         <v>1436</v>
       </c>
       <c r="C263" t="s">
-        <v>1676</v>
+        <v>1692</v>
       </c>
       <c r="D263" t="s">
         <v>783</v>
@@ -10519,7 +10519,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>785</v>
       </c>
@@ -10527,7 +10527,7 @@
         <v>1436</v>
       </c>
       <c r="C264" t="s">
-        <v>1677</v>
+        <v>1693</v>
       </c>
       <c r="D264" t="s">
         <v>786</v>
@@ -10536,7 +10536,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>788</v>
       </c>
@@ -10544,7 +10544,7 @@
         <v>1436</v>
       </c>
       <c r="C265" t="s">
-        <v>1678</v>
+        <v>1694</v>
       </c>
       <c r="D265" t="s">
         <v>789</v>
@@ -10553,7 +10553,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>791</v>
       </c>
@@ -10561,7 +10561,7 @@
         <v>1436</v>
       </c>
       <c r="C266" t="s">
-        <v>1679</v>
+        <v>1695</v>
       </c>
       <c r="D266" t="s">
         <v>792</v>
@@ -10570,7 +10570,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>794</v>
       </c>
@@ -10578,7 +10578,7 @@
         <v>1436</v>
       </c>
       <c r="C267" t="s">
-        <v>1680</v>
+        <v>1696</v>
       </c>
       <c r="D267" t="s">
         <v>795</v>
@@ -10587,7 +10587,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>797</v>
       </c>
@@ -10595,7 +10595,7 @@
         <v>1436</v>
       </c>
       <c r="C268" t="s">
-        <v>1681</v>
+        <v>1697</v>
       </c>
       <c r="D268" t="s">
         <v>798</v>
@@ -10604,7 +10604,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>800</v>
       </c>
@@ -10612,7 +10612,7 @@
         <v>1436</v>
       </c>
       <c r="C269" t="s">
-        <v>1682</v>
+        <v>1698</v>
       </c>
       <c r="D269" t="s">
         <v>801</v>
@@ -10621,7 +10621,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>803</v>
       </c>
@@ -10629,7 +10629,7 @@
         <v>1436</v>
       </c>
       <c r="C270" t="s">
-        <v>1683</v>
+        <v>1699</v>
       </c>
       <c r="D270" t="s">
         <v>804</v>
@@ -10638,7 +10638,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>806</v>
       </c>
@@ -10646,7 +10646,7 @@
         <v>1436</v>
       </c>
       <c r="C271" t="s">
-        <v>1684</v>
+        <v>1700</v>
       </c>
       <c r="D271" t="s">
         <v>807</v>
@@ -10655,7 +10655,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>809</v>
       </c>
@@ -10663,7 +10663,7 @@
         <v>1436</v>
       </c>
       <c r="C272" t="s">
-        <v>1685</v>
+        <v>1701</v>
       </c>
       <c r="D272" t="s">
         <v>810</v>
@@ -10672,7 +10672,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>812</v>
       </c>
@@ -10680,7 +10680,7 @@
         <v>1436</v>
       </c>
       <c r="C273" t="s">
-        <v>1686</v>
+        <v>1702</v>
       </c>
       <c r="D273" t="s">
         <v>813</v>
@@ -10689,7 +10689,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>815</v>
       </c>
@@ -10697,7 +10697,7 @@
         <v>1436</v>
       </c>
       <c r="C274" t="s">
-        <v>1687</v>
+        <v>1703</v>
       </c>
       <c r="D274" t="s">
         <v>816</v>
@@ -10706,7 +10706,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>818</v>
       </c>
@@ -10714,7 +10714,7 @@
         <v>1436</v>
       </c>
       <c r="C275" t="s">
-        <v>1688</v>
+        <v>1704</v>
       </c>
       <c r="D275" t="s">
         <v>819</v>
@@ -10723,7 +10723,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>821</v>
       </c>
@@ -10731,7 +10731,7 @@
         <v>1436</v>
       </c>
       <c r="C276" t="s">
-        <v>1689</v>
+        <v>1705</v>
       </c>
       <c r="D276" t="s">
         <v>822</v>
@@ -10740,7 +10740,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>824</v>
       </c>
@@ -10748,7 +10748,7 @@
         <v>1436</v>
       </c>
       <c r="C277" t="s">
-        <v>1690</v>
+        <v>1706</v>
       </c>
       <c r="D277" t="s">
         <v>825</v>
@@ -10757,7 +10757,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>827</v>
       </c>
@@ -10765,7 +10765,7 @@
         <v>1436</v>
       </c>
       <c r="C278" t="s">
-        <v>1691</v>
+        <v>1707</v>
       </c>
       <c r="D278" t="s">
         <v>828</v>
@@ -10774,7 +10774,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>830</v>
       </c>
@@ -10782,7 +10782,7 @@
         <v>1436</v>
       </c>
       <c r="C279" t="s">
-        <v>1692</v>
+        <v>1708</v>
       </c>
       <c r="D279" t="s">
         <v>831</v>
@@ -10791,7 +10791,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>833</v>
       </c>
@@ -10799,7 +10799,7 @@
         <v>1436</v>
       </c>
       <c r="C280" t="s">
-        <v>1693</v>
+        <v>1709</v>
       </c>
       <c r="D280" t="s">
         <v>834</v>
@@ -10808,7 +10808,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>836</v>
       </c>
@@ -10816,7 +10816,7 @@
         <v>1436</v>
       </c>
       <c r="C281" t="s">
-        <v>1884</v>
+        <v>1710</v>
       </c>
       <c r="D281" t="s">
         <v>837</v>
@@ -10825,7 +10825,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>839</v>
       </c>
@@ -10833,7 +10833,7 @@
         <v>1436</v>
       </c>
       <c r="C282" t="s">
-        <v>1694</v>
+        <v>1711</v>
       </c>
       <c r="D282" t="s">
         <v>840</v>
@@ -10842,7 +10842,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>842</v>
       </c>
@@ -10850,7 +10850,7 @@
         <v>1436</v>
       </c>
       <c r="C283" t="s">
-        <v>1695</v>
+        <v>1712</v>
       </c>
       <c r="D283" t="s">
         <v>843</v>
@@ -10859,7 +10859,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>845</v>
       </c>
@@ -10867,7 +10867,7 @@
         <v>1436</v>
       </c>
       <c r="C284" t="s">
-        <v>1696</v>
+        <v>1713</v>
       </c>
       <c r="D284" t="s">
         <v>846</v>
@@ -10876,7 +10876,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>848</v>
       </c>
@@ -10884,7 +10884,7 @@
         <v>1436</v>
       </c>
       <c r="C285" t="s">
-        <v>1697</v>
+        <v>1714</v>
       </c>
       <c r="D285" t="s">
         <v>849</v>
@@ -10893,7 +10893,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>851</v>
       </c>
@@ -10901,7 +10901,7 @@
         <v>1436</v>
       </c>
       <c r="C286" t="s">
-        <v>1698</v>
+        <v>1715</v>
       </c>
       <c r="D286" t="s">
         <v>852</v>
@@ -10910,7 +10910,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>854</v>
       </c>
@@ -10918,7 +10918,7 @@
         <v>1436</v>
       </c>
       <c r="C287" t="s">
-        <v>1699</v>
+        <v>1716</v>
       </c>
       <c r="D287" t="s">
         <v>855</v>
@@ -10927,7 +10927,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>857</v>
       </c>
@@ -10935,7 +10935,7 @@
         <v>1436</v>
       </c>
       <c r="C288" t="s">
-        <v>1700</v>
+        <v>1717</v>
       </c>
       <c r="D288" t="s">
         <v>858</v>
@@ -10944,7 +10944,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>860</v>
       </c>
@@ -10952,7 +10952,7 @@
         <v>1436</v>
       </c>
       <c r="C289" t="s">
-        <v>1701</v>
+        <v>1718</v>
       </c>
       <c r="D289" t="s">
         <v>861</v>
@@ -10961,7 +10961,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>863</v>
       </c>
@@ -10969,7 +10969,7 @@
         <v>1436</v>
       </c>
       <c r="C290" t="s">
-        <v>1702</v>
+        <v>1719</v>
       </c>
       <c r="D290" t="s">
         <v>864</v>
@@ -10978,7 +10978,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>866</v>
       </c>
@@ -10986,7 +10986,7 @@
         <v>1436</v>
       </c>
       <c r="C291" t="s">
-        <v>1703</v>
+        <v>1720</v>
       </c>
       <c r="D291" t="s">
         <v>867</v>
@@ -10995,7 +10995,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>869</v>
       </c>
@@ -11003,7 +11003,7 @@
         <v>1436</v>
       </c>
       <c r="C292" t="s">
-        <v>1704</v>
+        <v>1721</v>
       </c>
       <c r="D292" t="s">
         <v>870</v>
@@ -11012,7 +11012,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>872</v>
       </c>
@@ -11020,7 +11020,7 @@
         <v>1436</v>
       </c>
       <c r="C293" t="s">
-        <v>1683</v>
+        <v>1699</v>
       </c>
       <c r="D293" t="s">
         <v>873</v>
@@ -11029,7 +11029,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>875</v>
       </c>
@@ -11037,7 +11037,7 @@
         <v>1436</v>
       </c>
       <c r="C294" t="s">
-        <v>1705</v>
+        <v>1722</v>
       </c>
       <c r="D294" t="s">
         <v>876</v>
@@ -11046,7 +11046,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>878</v>
       </c>
@@ -11054,7 +11054,7 @@
         <v>1436</v>
       </c>
       <c r="C295" t="s">
-        <v>1706</v>
+        <v>1723</v>
       </c>
       <c r="D295" t="s">
         <v>879</v>
@@ -11063,7 +11063,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>881</v>
       </c>
@@ -11071,7 +11071,7 @@
         <v>1436</v>
       </c>
       <c r="C296" t="s">
-        <v>1707</v>
+        <v>1724</v>
       </c>
       <c r="D296" t="s">
         <v>882</v>
@@ -11080,7 +11080,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>884</v>
       </c>
@@ -11088,7 +11088,7 @@
         <v>1436</v>
       </c>
       <c r="C297" t="s">
-        <v>1708</v>
+        <v>1725</v>
       </c>
       <c r="D297" t="s">
         <v>885</v>
@@ -11097,7 +11097,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>887</v>
       </c>
@@ -11105,7 +11105,7 @@
         <v>1436</v>
       </c>
       <c r="C298" t="s">
-        <v>1709</v>
+        <v>1726</v>
       </c>
       <c r="D298" t="s">
         <v>888</v>
@@ -11114,7 +11114,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>890</v>
       </c>
@@ -11122,7 +11122,7 @@
         <v>1436</v>
       </c>
       <c r="C299" t="s">
-        <v>1710</v>
+        <v>1727</v>
       </c>
       <c r="D299" t="s">
         <v>891</v>
@@ -11131,7 +11131,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>893</v>
       </c>
@@ -11139,7 +11139,7 @@
         <v>1436</v>
       </c>
       <c r="C300" t="s">
-        <v>1711</v>
+        <v>1728</v>
       </c>
       <c r="D300" t="s">
         <v>894</v>
@@ -11148,7 +11148,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>896</v>
       </c>
@@ -11156,7 +11156,7 @@
         <v>1436</v>
       </c>
       <c r="C301" t="s">
-        <v>1712</v>
+        <v>1729</v>
       </c>
       <c r="D301" t="s">
         <v>897</v>
@@ -11165,7 +11165,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>899</v>
       </c>
@@ -11173,7 +11173,7 @@
         <v>1436</v>
       </c>
       <c r="C302" t="s">
-        <v>1713</v>
+        <v>1730</v>
       </c>
       <c r="D302" t="s">
         <v>900</v>
@@ -11182,7 +11182,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>902</v>
       </c>
@@ -11190,7 +11190,7 @@
         <v>1436</v>
       </c>
       <c r="C303" t="s">
-        <v>1714</v>
+        <v>1731</v>
       </c>
       <c r="D303" t="s">
         <v>903</v>
@@ -11199,7 +11199,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>905</v>
       </c>
@@ -11207,7 +11207,7 @@
         <v>1436</v>
       </c>
       <c r="C304" t="s">
-        <v>1715</v>
+        <v>1732</v>
       </c>
       <c r="D304" t="s">
         <v>906</v>
@@ -11216,7 +11216,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>908</v>
       </c>
@@ -11224,7 +11224,7 @@
         <v>1436</v>
       </c>
       <c r="C305" t="s">
-        <v>1720</v>
+        <v>1733</v>
       </c>
       <c r="D305" t="s">
         <v>909</v>
@@ -11233,7 +11233,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>911</v>
       </c>
@@ -11241,7 +11241,7 @@
         <v>1436</v>
       </c>
       <c r="C306" t="s">
-        <v>1721</v>
+        <v>1734</v>
       </c>
       <c r="D306" t="s">
         <v>912</v>
@@ -11250,7 +11250,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>914</v>
       </c>
@@ -11258,7 +11258,7 @@
         <v>1436</v>
       </c>
       <c r="C307" t="s">
-        <v>1722</v>
+        <v>1735</v>
       </c>
       <c r="D307" t="s">
         <v>915</v>
@@ -11267,7 +11267,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>917</v>
       </c>
@@ -11275,7 +11275,7 @@
         <v>1436</v>
       </c>
       <c r="C308" t="s">
-        <v>1717</v>
+        <v>1736</v>
       </c>
       <c r="D308" t="s">
         <v>918</v>
@@ -11284,7 +11284,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>920</v>
       </c>
@@ -11292,7 +11292,7 @@
         <v>1436</v>
       </c>
       <c r="C309" t="s">
-        <v>1718</v>
+        <v>1737</v>
       </c>
       <c r="D309" t="s">
         <v>921</v>
@@ -11301,7 +11301,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>923</v>
       </c>
@@ -11309,7 +11309,7 @@
         <v>1436</v>
       </c>
       <c r="C310" t="s">
-        <v>1719</v>
+        <v>1738</v>
       </c>
       <c r="D310" t="s">
         <v>924</v>
@@ -11318,7 +11318,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>926</v>
       </c>
@@ -11326,7 +11326,7 @@
         <v>1436</v>
       </c>
       <c r="C311" t="s">
-        <v>1723</v>
+        <v>1739</v>
       </c>
       <c r="D311" t="s">
         <v>825</v>
@@ -11335,7 +11335,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>928</v>
       </c>
@@ -11343,7 +11343,7 @@
         <v>1436</v>
       </c>
       <c r="C312" t="s">
-        <v>1732</v>
+        <v>1740</v>
       </c>
       <c r="D312" t="s">
         <v>929</v>
@@ -11352,7 +11352,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>931</v>
       </c>
@@ -11360,7 +11360,7 @@
         <v>1436</v>
       </c>
       <c r="C313" t="s">
-        <v>1730</v>
+        <v>1741</v>
       </c>
       <c r="D313" t="s">
         <v>932</v>
@@ -11369,7 +11369,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>934</v>
       </c>
@@ -11377,7 +11377,7 @@
         <v>1436</v>
       </c>
       <c r="C314" t="s">
-        <v>1724</v>
+        <v>1742</v>
       </c>
       <c r="D314" t="s">
         <v>935</v>
@@ -11386,7 +11386,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>937</v>
       </c>
@@ -11394,7 +11394,7 @@
         <v>1436</v>
       </c>
       <c r="C315" t="s">
-        <v>1725</v>
+        <v>1743</v>
       </c>
       <c r="D315" t="s">
         <v>938</v>
@@ -11403,7 +11403,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>940</v>
       </c>
@@ -11411,7 +11411,7 @@
         <v>1436</v>
       </c>
       <c r="C316" t="s">
-        <v>1726</v>
+        <v>1744</v>
       </c>
       <c r="D316" t="s">
         <v>941</v>
@@ -11420,7 +11420,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>943</v>
       </c>
@@ -11428,7 +11428,7 @@
         <v>1436</v>
       </c>
       <c r="C317" t="s">
-        <v>1727</v>
+        <v>1745</v>
       </c>
       <c r="D317" t="s">
         <v>944</v>
@@ -11437,7 +11437,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>946</v>
       </c>
@@ -11445,7 +11445,7 @@
         <v>1436</v>
       </c>
       <c r="C318" t="s">
-        <v>1731</v>
+        <v>1746</v>
       </c>
       <c r="D318" t="s">
         <v>947</v>
@@ -11454,7 +11454,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>949</v>
       </c>
@@ -11462,7 +11462,7 @@
         <v>1436</v>
       </c>
       <c r="C319" t="s">
-        <v>1728</v>
+        <v>1747</v>
       </c>
       <c r="D319" t="s">
         <v>950</v>
@@ -11471,7 +11471,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>952</v>
       </c>
@@ -11479,7 +11479,7 @@
         <v>1436</v>
       </c>
       <c r="C320" t="s">
-        <v>1729</v>
+        <v>1748</v>
       </c>
       <c r="D320" t="s">
         <v>953</v>
@@ -11488,7 +11488,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>955</v>
       </c>
@@ -11496,7 +11496,7 @@
         <v>1436</v>
       </c>
       <c r="C321" t="s">
-        <v>1733</v>
+        <v>1749</v>
       </c>
       <c r="D321" t="s">
         <v>956</v>
@@ -11505,7 +11505,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>958</v>
       </c>
@@ -11513,7 +11513,7 @@
         <v>1436</v>
       </c>
       <c r="C322" t="s">
-        <v>1734</v>
+        <v>1750</v>
       </c>
       <c r="D322" t="s">
         <v>959</v>
@@ -11522,7 +11522,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>961</v>
       </c>
@@ -11530,7 +11530,7 @@
         <v>1436</v>
       </c>
       <c r="C323" t="s">
-        <v>1742</v>
+        <v>1751</v>
       </c>
       <c r="D323" t="s">
         <v>962</v>
@@ -11539,7 +11539,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>964</v>
       </c>
@@ -11547,7 +11547,7 @@
         <v>1436</v>
       </c>
       <c r="C324" t="s">
-        <v>1735</v>
+        <v>1752</v>
       </c>
       <c r="D324" t="s">
         <v>965</v>
@@ -11556,7 +11556,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>967</v>
       </c>
@@ -11564,7 +11564,7 @@
         <v>1436</v>
       </c>
       <c r="C325" t="s">
-        <v>1736</v>
+        <v>1753</v>
       </c>
       <c r="D325" t="s">
         <v>888</v>
@@ -11573,7 +11573,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>969</v>
       </c>
@@ -11581,7 +11581,7 @@
         <v>1436</v>
       </c>
       <c r="C326" t="s">
-        <v>1737</v>
+        <v>1754</v>
       </c>
       <c r="D326" t="s">
         <v>970</v>
@@ -11590,7 +11590,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>972</v>
       </c>
@@ -11598,7 +11598,7 @@
         <v>1436</v>
       </c>
       <c r="C327" t="s">
-        <v>1738</v>
+        <v>1755</v>
       </c>
       <c r="D327" t="s">
         <v>973</v>
@@ -11607,7 +11607,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>975</v>
       </c>
@@ -11615,7 +11615,7 @@
         <v>1436</v>
       </c>
       <c r="C328" t="s">
-        <v>1741</v>
+        <v>1756</v>
       </c>
       <c r="D328" t="s">
         <v>976</v>
@@ -11624,7 +11624,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>978</v>
       </c>
@@ -11632,7 +11632,7 @@
         <v>1436</v>
       </c>
       <c r="C329" t="s">
-        <v>1739</v>
+        <v>1757</v>
       </c>
       <c r="D329" t="s">
         <v>979</v>
@@ -11641,7 +11641,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>981</v>
       </c>
@@ -11649,7 +11649,7 @@
         <v>1436</v>
       </c>
       <c r="C330" t="s">
-        <v>1740</v>
+        <v>1758</v>
       </c>
       <c r="D330" t="s">
         <v>982</v>
@@ -11658,7 +11658,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>984</v>
       </c>
@@ -11666,7 +11666,7 @@
         <v>1436</v>
       </c>
       <c r="C331" t="s">
-        <v>1743</v>
+        <v>1759</v>
       </c>
       <c r="D331" t="s">
         <v>985</v>
@@ -11675,7 +11675,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>987</v>
       </c>
@@ -11683,7 +11683,7 @@
         <v>1436</v>
       </c>
       <c r="C332" t="s">
-        <v>1744</v>
+        <v>1760</v>
       </c>
       <c r="D332" t="s">
         <v>988</v>
@@ -11692,7 +11692,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>990</v>
       </c>
@@ -11700,7 +11700,7 @@
         <v>1436</v>
       </c>
       <c r="C333" t="s">
-        <v>1745</v>
+        <v>1761</v>
       </c>
       <c r="D333" t="s">
         <v>991</v>
@@ -11709,7 +11709,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>993</v>
       </c>
@@ -11717,7 +11717,7 @@
         <v>1436</v>
       </c>
       <c r="C334" t="s">
-        <v>1746</v>
+        <v>1762</v>
       </c>
       <c r="D334" t="s">
         <v>994</v>
@@ -11726,7 +11726,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>996</v>
       </c>
@@ -11734,7 +11734,7 @@
         <v>1436</v>
       </c>
       <c r="C335" t="s">
-        <v>1747</v>
+        <v>1763</v>
       </c>
       <c r="D335" t="s">
         <v>997</v>
@@ -11743,7 +11743,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>999</v>
       </c>
@@ -11751,7 +11751,7 @@
         <v>1436</v>
       </c>
       <c r="C336" t="s">
-        <v>1748</v>
+        <v>1764</v>
       </c>
       <c r="D336" t="s">
         <v>1000</v>
@@ -11760,7 +11760,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>1002</v>
       </c>
@@ -11768,7 +11768,7 @@
         <v>1436</v>
       </c>
       <c r="C337" t="s">
-        <v>1749</v>
+        <v>1765</v>
       </c>
       <c r="D337" t="s">
         <v>1003</v>
@@ -11777,7 +11777,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>1005</v>
       </c>
@@ -11785,7 +11785,7 @@
         <v>1436</v>
       </c>
       <c r="C338" t="s">
-        <v>1751</v>
+        <v>1766</v>
       </c>
       <c r="D338" t="s">
         <v>1006</v>
@@ -11794,7 +11794,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>1008</v>
       </c>
@@ -11802,7 +11802,7 @@
         <v>1436</v>
       </c>
       <c r="C339" t="s">
-        <v>1750</v>
+        <v>1767</v>
       </c>
       <c r="D339" t="s">
         <v>1009</v>
@@ -11811,7 +11811,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>1011</v>
       </c>
@@ -11819,7 +11819,7 @@
         <v>1436</v>
       </c>
       <c r="C340" t="s">
-        <v>1752</v>
+        <v>1768</v>
       </c>
       <c r="D340" t="s">
         <v>1012</v>
@@ -11828,7 +11828,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>1014</v>
       </c>
@@ -11836,7 +11836,7 @@
         <v>1436</v>
       </c>
       <c r="C341" t="s">
-        <v>1753</v>
+        <v>1769</v>
       </c>
       <c r="D341" t="s">
         <v>1015</v>
@@ -11845,7 +11845,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>1017</v>
       </c>
@@ -11853,7 +11853,7 @@
         <v>1436</v>
       </c>
       <c r="C342" t="s">
-        <v>1754</v>
+        <v>1770</v>
       </c>
       <c r="D342" t="s">
         <v>1018</v>
@@ -11862,7 +11862,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>1020</v>
       </c>
@@ -11870,7 +11870,7 @@
         <v>1436</v>
       </c>
       <c r="C343" t="s">
-        <v>1755</v>
+        <v>1771</v>
       </c>
       <c r="D343" t="s">
         <v>1021</v>
@@ -11879,7 +11879,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>1023</v>
       </c>
@@ -11887,7 +11887,7 @@
         <v>1436</v>
       </c>
       <c r="C344" t="s">
-        <v>1756</v>
+        <v>1772</v>
       </c>
       <c r="D344" t="s">
         <v>1024</v>
@@ -11896,7 +11896,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>1026</v>
       </c>
@@ -11904,7 +11904,7 @@
         <v>1436</v>
       </c>
       <c r="C345" t="s">
-        <v>1757</v>
+        <v>1773</v>
       </c>
       <c r="D345" t="s">
         <v>1027</v>
@@ -11913,7 +11913,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>1029</v>
       </c>
@@ -11921,7 +11921,7 @@
         <v>1436</v>
       </c>
       <c r="C346" t="s">
-        <v>1758</v>
+        <v>1774</v>
       </c>
       <c r="D346" t="s">
         <v>1030</v>
@@ -11930,7 +11930,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>1032</v>
       </c>
@@ -11938,7 +11938,7 @@
         <v>1436</v>
       </c>
       <c r="C347" t="s">
-        <v>1762</v>
+        <v>1775</v>
       </c>
       <c r="D347" t="s">
         <v>1033</v>
@@ -11947,7 +11947,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>1035</v>
       </c>
@@ -11955,7 +11955,7 @@
         <v>1436</v>
       </c>
       <c r="C348" t="s">
-        <v>1759</v>
+        <v>1776</v>
       </c>
       <c r="D348" t="s">
         <v>1036</v>
@@ -11964,7 +11964,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>1038</v>
       </c>
@@ -11972,7 +11972,7 @@
         <v>1436</v>
       </c>
       <c r="C349" t="s">
-        <v>1760</v>
+        <v>1777</v>
       </c>
       <c r="D349" t="s">
         <v>1039</v>
@@ -11981,7 +11981,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>1041</v>
       </c>
@@ -11989,7 +11989,7 @@
         <v>1436</v>
       </c>
       <c r="C350" t="s">
-        <v>1761</v>
+        <v>1778</v>
       </c>
       <c r="D350" t="s">
         <v>1042</v>
@@ -11998,7 +11998,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>1044</v>
       </c>
@@ -12006,7 +12006,7 @@
         <v>1436</v>
       </c>
       <c r="C351" t="s">
-        <v>1763</v>
+        <v>1779</v>
       </c>
       <c r="D351" t="s">
         <v>1045</v>
@@ -12015,7 +12015,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>1047</v>
       </c>
@@ -12023,7 +12023,7 @@
         <v>1436</v>
       </c>
       <c r="C352" t="s">
-        <v>1764</v>
+        <v>1780</v>
       </c>
       <c r="D352" t="s">
         <v>1048</v>
@@ -12032,7 +12032,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>1050</v>
       </c>
@@ -12040,7 +12040,7 @@
         <v>1436</v>
       </c>
       <c r="C353" t="s">
-        <v>1765</v>
+        <v>1781</v>
       </c>
       <c r="D353" t="s">
         <v>1051</v>
@@ -12049,7 +12049,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>1053</v>
       </c>
@@ -12057,7 +12057,7 @@
         <v>1436</v>
       </c>
       <c r="C354" t="s">
-        <v>1766</v>
+        <v>1782</v>
       </c>
       <c r="D354" t="s">
         <v>1054</v>
@@ -12066,7 +12066,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>1056</v>
       </c>
@@ -12074,7 +12074,7 @@
         <v>1436</v>
       </c>
       <c r="C355" t="s">
-        <v>1767</v>
+        <v>1783</v>
       </c>
       <c r="D355" t="s">
         <v>1057</v>
@@ -12083,7 +12083,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>1059</v>
       </c>
@@ -12091,7 +12091,7 @@
         <v>1436</v>
       </c>
       <c r="C356" t="s">
-        <v>1768</v>
+        <v>1784</v>
       </c>
       <c r="D356" t="s">
         <v>1060</v>
@@ -12100,7 +12100,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>1062</v>
       </c>
@@ -12108,7 +12108,7 @@
         <v>1436</v>
       </c>
       <c r="C357" t="s">
-        <v>1769</v>
+        <v>1785</v>
       </c>
       <c r="D357" t="s">
         <v>1063</v>
@@ -12117,7 +12117,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>1065</v>
       </c>
@@ -12125,7 +12125,7 @@
         <v>1436</v>
       </c>
       <c r="C358" t="s">
-        <v>1599</v>
+        <v>1613</v>
       </c>
       <c r="D358" t="s">
         <v>1066</v>
@@ -12134,7 +12134,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>1067</v>
       </c>
@@ -12142,7 +12142,7 @@
         <v>1436</v>
       </c>
       <c r="C359" t="s">
-        <v>1770</v>
+        <v>1786</v>
       </c>
       <c r="D359" t="s">
         <v>1068</v>
@@ -12151,7 +12151,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>1070</v>
       </c>
@@ -12159,7 +12159,7 @@
         <v>1436</v>
       </c>
       <c r="C360" t="s">
-        <v>1771</v>
+        <v>1787</v>
       </c>
       <c r="D360" t="s">
         <v>1071</v>
@@ -12168,7 +12168,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>1073</v>
       </c>
@@ -12176,7 +12176,7 @@
         <v>1436</v>
       </c>
       <c r="C361" t="s">
-        <v>1776</v>
+        <v>1788</v>
       </c>
       <c r="D361" t="s">
         <v>1074</v>
@@ -12185,7 +12185,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>1076</v>
       </c>
@@ -12193,7 +12193,7 @@
         <v>1436</v>
       </c>
       <c r="C362" t="s">
-        <v>1772</v>
+        <v>1789</v>
       </c>
       <c r="D362" t="s">
         <v>1077</v>
@@ -12202,7 +12202,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>1079</v>
       </c>
@@ -12210,7 +12210,7 @@
         <v>1436</v>
       </c>
       <c r="C363" t="s">
-        <v>1777</v>
+        <v>1790</v>
       </c>
       <c r="D363" t="s">
         <v>882</v>
@@ -12219,7 +12219,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>1081</v>
       </c>
@@ -12227,7 +12227,7 @@
         <v>1436</v>
       </c>
       <c r="C364" t="s">
-        <v>1778</v>
+        <v>1791</v>
       </c>
       <c r="D364" t="s">
         <v>1082</v>
@@ -12236,7 +12236,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>1084</v>
       </c>
@@ -12244,7 +12244,7 @@
         <v>1436</v>
       </c>
       <c r="C365" t="s">
-        <v>1773</v>
+        <v>1792</v>
       </c>
       <c r="D365" t="s">
         <v>1085</v>
@@ -12253,7 +12253,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>1087</v>
       </c>
@@ -12261,7 +12261,7 @@
         <v>1436</v>
       </c>
       <c r="C366" t="s">
-        <v>1774</v>
+        <v>1793</v>
       </c>
       <c r="D366" t="s">
         <v>1088</v>
@@ -12270,7 +12270,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>1090</v>
       </c>
@@ -12278,7 +12278,7 @@
         <v>1436</v>
       </c>
       <c r="C367" t="s">
-        <v>1779</v>
+        <v>1794</v>
       </c>
       <c r="D367" t="s">
         <v>1091</v>
@@ -12287,7 +12287,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>1093</v>
       </c>
@@ -12295,7 +12295,7 @@
         <v>1436</v>
       </c>
       <c r="C368" t="s">
-        <v>1716</v>
+        <v>1795</v>
       </c>
       <c r="D368" t="s">
         <v>771</v>
@@ -12304,7 +12304,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>1095</v>
       </c>
@@ -12312,7 +12312,7 @@
         <v>1436</v>
       </c>
       <c r="C369" t="s">
-        <v>1775</v>
+        <v>1796</v>
       </c>
       <c r="D369" t="s">
         <v>1096</v>
@@ -12321,7 +12321,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>1098</v>
       </c>
@@ -12329,7 +12329,7 @@
         <v>1436</v>
       </c>
       <c r="C370" t="s">
-        <v>1780</v>
+        <v>1797</v>
       </c>
       <c r="D370" t="s">
         <v>1099</v>
@@ -12338,7 +12338,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>1101</v>
       </c>
@@ -12346,7 +12346,7 @@
         <v>1436</v>
       </c>
       <c r="C371" t="s">
-        <v>1781</v>
+        <v>1798</v>
       </c>
       <c r="D371" t="s">
         <v>1102</v>
@@ -12355,7 +12355,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>1104</v>
       </c>
@@ -12363,7 +12363,7 @@
         <v>1436</v>
       </c>
       <c r="C372" t="s">
-        <v>1782</v>
+        <v>1799</v>
       </c>
       <c r="D372" t="s">
         <v>1105</v>
@@ -12372,7 +12372,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>1107</v>
       </c>
@@ -12380,7 +12380,7 @@
         <v>1436</v>
       </c>
       <c r="C373" t="s">
-        <v>1783</v>
+        <v>1800</v>
       </c>
       <c r="D373" t="s">
         <v>1108</v>
@@ -12389,7 +12389,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>1110</v>
       </c>
@@ -12397,7 +12397,7 @@
         <v>1436</v>
       </c>
       <c r="C374" t="s">
-        <v>1790</v>
+        <v>1801</v>
       </c>
       <c r="D374" t="s">
         <v>1111</v>
@@ -12406,7 +12406,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>1113</v>
       </c>
@@ -12414,7 +12414,7 @@
         <v>1436</v>
       </c>
       <c r="C375" t="s">
-        <v>1784</v>
+        <v>1802</v>
       </c>
       <c r="D375" t="s">
         <v>1114</v>
@@ -12423,7 +12423,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>1116</v>
       </c>
@@ -12431,7 +12431,7 @@
         <v>1436</v>
       </c>
       <c r="C376" t="s">
-        <v>1785</v>
+        <v>1803</v>
       </c>
       <c r="D376" t="s">
         <v>1117</v>
@@ -12440,7 +12440,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>1119</v>
       </c>
@@ -12448,7 +12448,7 @@
         <v>1436</v>
       </c>
       <c r="C377" t="s">
-        <v>1786</v>
+        <v>1804</v>
       </c>
       <c r="D377" t="s">
         <v>1120</v>
@@ -12457,7 +12457,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>1122</v>
       </c>
@@ -12465,7 +12465,7 @@
         <v>1436</v>
       </c>
       <c r="C378" t="s">
-        <v>1787</v>
+        <v>1805</v>
       </c>
       <c r="D378" t="s">
         <v>1123</v>
@@ -12474,7 +12474,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>1125</v>
       </c>
@@ -12482,7 +12482,7 @@
         <v>1436</v>
       </c>
       <c r="C379" t="s">
-        <v>1788</v>
+        <v>1806</v>
       </c>
       <c r="D379" t="s">
         <v>1126</v>
@@ -12491,7 +12491,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>1128</v>
       </c>
@@ -12499,7 +12499,7 @@
         <v>1436</v>
       </c>
       <c r="C380" t="s">
-        <v>1789</v>
+        <v>1807</v>
       </c>
       <c r="D380" t="s">
         <v>1129</v>
@@ -12508,7 +12508,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>1131</v>
       </c>
@@ -12516,7 +12516,7 @@
         <v>1436</v>
       </c>
       <c r="C381" t="s">
-        <v>1791</v>
+        <v>1808</v>
       </c>
       <c r="D381" t="s">
         <v>1132</v>
@@ -12525,7 +12525,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>1134</v>
       </c>
@@ -12533,7 +12533,7 @@
         <v>1436</v>
       </c>
       <c r="C382" t="s">
-        <v>1792</v>
+        <v>1809</v>
       </c>
       <c r="D382" t="s">
         <v>1135</v>
@@ -12542,7 +12542,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>1137</v>
       </c>
@@ -12550,7 +12550,7 @@
         <v>1436</v>
       </c>
       <c r="C383" t="s">
-        <v>1800</v>
+        <v>1810</v>
       </c>
       <c r="D383" t="s">
         <v>1138</v>
@@ -12559,7 +12559,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>1140</v>
       </c>
@@ -12567,13 +12567,13 @@
         <v>1436</v>
       </c>
       <c r="C384" t="s">
-        <v>1793</v>
+        <v>1811</v>
       </c>
       <c r="E384" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>1142</v>
       </c>
@@ -12581,7 +12581,7 @@
         <v>1436</v>
       </c>
       <c r="C385" t="s">
-        <v>1794</v>
+        <v>1812</v>
       </c>
       <c r="D385" t="s">
         <v>1143</v>
@@ -12590,7 +12590,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>1145</v>
       </c>
@@ -12598,7 +12598,7 @@
         <v>1436</v>
       </c>
       <c r="C386" t="s">
-        <v>1795</v>
+        <v>1813</v>
       </c>
       <c r="D386" t="s">
         <v>1146</v>
@@ -12607,7 +12607,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>1148</v>
       </c>
@@ -12615,7 +12615,7 @@
         <v>1436</v>
       </c>
       <c r="C387" t="s">
-        <v>1796</v>
+        <v>1814</v>
       </c>
       <c r="D387" t="s">
         <v>1149</v>
@@ -12624,7 +12624,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>1151</v>
       </c>
@@ -12632,7 +12632,7 @@
         <v>1436</v>
       </c>
       <c r="C388" t="s">
-        <v>1797</v>
+        <v>1815</v>
       </c>
       <c r="D388" t="s">
         <v>1152</v>
@@ -12641,7 +12641,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>1154</v>
       </c>
@@ -12649,7 +12649,7 @@
         <v>1436</v>
       </c>
       <c r="C389" t="s">
-        <v>1798</v>
+        <v>1816</v>
       </c>
       <c r="D389" t="s">
         <v>1155</v>
@@ -12658,7 +12658,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>1157</v>
       </c>
@@ -12666,7 +12666,7 @@
         <v>1436</v>
       </c>
       <c r="C390" t="s">
-        <v>1799</v>
+        <v>1817</v>
       </c>
       <c r="D390" t="s">
         <v>1158</v>
@@ -12675,7 +12675,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>1160</v>
       </c>
@@ -12683,7 +12683,7 @@
         <v>1436</v>
       </c>
       <c r="C391" t="s">
-        <v>1801</v>
+        <v>1818</v>
       </c>
       <c r="D391" t="s">
         <v>1161</v>
@@ -12692,7 +12692,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>1163</v>
       </c>
@@ -12700,7 +12700,7 @@
         <v>1436</v>
       </c>
       <c r="C392" t="s">
-        <v>1806</v>
+        <v>1819</v>
       </c>
       <c r="D392" t="s">
         <v>1164</v>
@@ -12709,7 +12709,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>1166</v>
       </c>
@@ -12717,7 +12717,7 @@
         <v>1436</v>
       </c>
       <c r="C393" t="s">
-        <v>1818</v>
+        <v>1820</v>
       </c>
       <c r="D393" t="s">
         <v>1167</v>
@@ -12726,7 +12726,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>1169</v>
       </c>
@@ -12734,7 +12734,7 @@
         <v>1436</v>
       </c>
       <c r="C394" t="s">
-        <v>1791</v>
+        <v>1808</v>
       </c>
       <c r="D394" t="s">
         <v>1170</v>
@@ -12743,7 +12743,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>1172</v>
       </c>
@@ -12751,7 +12751,7 @@
         <v>1436</v>
       </c>
       <c r="C395" t="s">
-        <v>1807</v>
+        <v>1821</v>
       </c>
       <c r="D395" t="s">
         <v>1173</v>
@@ -12760,7 +12760,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>1175</v>
       </c>
@@ -12768,7 +12768,7 @@
         <v>1436</v>
       </c>
       <c r="C396" t="s">
-        <v>1802</v>
+        <v>1822</v>
       </c>
       <c r="D396" t="s">
         <v>1176</v>
@@ -12777,7 +12777,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>1178</v>
       </c>
@@ -12785,7 +12785,7 @@
         <v>1436</v>
       </c>
       <c r="C397" t="s">
-        <v>1803</v>
+        <v>1823</v>
       </c>
       <c r="D397" t="s">
         <v>1179</v>
@@ -12794,7 +12794,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>1180</v>
       </c>
@@ -12802,7 +12802,7 @@
         <v>1436</v>
       </c>
       <c r="C398" t="s">
-        <v>1804</v>
+        <v>1824</v>
       </c>
       <c r="D398" t="s">
         <v>1181</v>
@@ -12811,7 +12811,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>1183</v>
       </c>
@@ -12819,7 +12819,7 @@
         <v>1436</v>
       </c>
       <c r="C399" t="s">
-        <v>1808</v>
+        <v>1825</v>
       </c>
       <c r="D399" t="s">
         <v>1184</v>
@@ -12828,7 +12828,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>1186</v>
       </c>
@@ -12845,7 +12845,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>1189</v>
       </c>
@@ -12853,13 +12853,13 @@
         <v>1436</v>
       </c>
       <c r="C401" t="s">
-        <v>1817</v>
+        <v>1826</v>
       </c>
       <c r="E401" t="s">
         <v>1190</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>1191</v>
       </c>
@@ -12867,7 +12867,7 @@
         <v>1436</v>
       </c>
       <c r="C402" t="s">
-        <v>1809</v>
+        <v>1827</v>
       </c>
       <c r="D402" t="s">
         <v>1192</v>
@@ -12876,7 +12876,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>1194</v>
       </c>
@@ -12884,7 +12884,7 @@
         <v>1436</v>
       </c>
       <c r="C403" t="s">
-        <v>1816</v>
+        <v>1828</v>
       </c>
       <c r="D403" t="s">
         <v>1195</v>
@@ -12893,7 +12893,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>1197</v>
       </c>
@@ -12901,7 +12901,7 @@
         <v>1436</v>
       </c>
       <c r="C404" t="s">
-        <v>1815</v>
+        <v>1829</v>
       </c>
       <c r="D404" t="s">
         <v>1198</v>
@@ -12910,7 +12910,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>1200</v>
       </c>
@@ -12918,13 +12918,13 @@
         <v>1436</v>
       </c>
       <c r="C405" t="s">
-        <v>1789</v>
+        <v>1807</v>
       </c>
       <c r="E405" t="s">
         <v>1201</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>1202</v>
       </c>
@@ -12932,7 +12932,7 @@
         <v>1436</v>
       </c>
       <c r="C406" t="s">
-        <v>1811</v>
+        <v>1830</v>
       </c>
       <c r="D406" t="s">
         <v>1203</v>
@@ -12941,7 +12941,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>1205</v>
       </c>
@@ -12949,7 +12949,7 @@
         <v>1436</v>
       </c>
       <c r="C407" t="s">
-        <v>1805</v>
+        <v>1831</v>
       </c>
       <c r="D407" t="s">
         <v>1206</v>
@@ -12958,7 +12958,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>1208</v>
       </c>
@@ -12966,7 +12966,7 @@
         <v>1436</v>
       </c>
       <c r="C408" t="s">
-        <v>1812</v>
+        <v>1832</v>
       </c>
       <c r="D408" t="s">
         <v>1209</v>
@@ -12975,7 +12975,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>1211</v>
       </c>
@@ -12983,7 +12983,7 @@
         <v>1436</v>
       </c>
       <c r="C409" t="s">
-        <v>1813</v>
+        <v>1833</v>
       </c>
       <c r="D409" t="s">
         <v>1212</v>
@@ -12992,7 +12992,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>1214</v>
       </c>
@@ -13000,7 +13000,7 @@
         <v>1436</v>
       </c>
       <c r="C410" t="s">
-        <v>1814</v>
+        <v>1834</v>
       </c>
       <c r="D410" t="s">
         <v>1215</v>
@@ -13009,7 +13009,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>1217</v>
       </c>
@@ -13017,7 +13017,7 @@
         <v>1436</v>
       </c>
       <c r="C411" t="s">
-        <v>1819</v>
+        <v>1835</v>
       </c>
       <c r="D411" t="s">
         <v>1218</v>
@@ -13026,7 +13026,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>1220</v>
       </c>
@@ -13034,7 +13034,7 @@
         <v>1436</v>
       </c>
       <c r="C412" t="s">
-        <v>1820</v>
+        <v>1836</v>
       </c>
       <c r="D412" t="s">
         <v>1221</v>
@@ -13043,7 +13043,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>1223</v>
       </c>
@@ -13051,7 +13051,7 @@
         <v>1436</v>
       </c>
       <c r="C413" t="s">
-        <v>1821</v>
+        <v>1837</v>
       </c>
       <c r="D413" t="s">
         <v>1224</v>
@@ -13060,7 +13060,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>1226</v>
       </c>
@@ -13068,7 +13068,7 @@
         <v>1436</v>
       </c>
       <c r="C414" t="s">
-        <v>1822</v>
+        <v>1838</v>
       </c>
       <c r="D414" t="s">
         <v>1227</v>
@@ -13077,7 +13077,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>1229</v>
       </c>
@@ -13085,7 +13085,7 @@
         <v>1436</v>
       </c>
       <c r="C415" t="s">
-        <v>1823</v>
+        <v>1839</v>
       </c>
       <c r="D415" t="s">
         <v>1230</v>
@@ -13094,7 +13094,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>1232</v>
       </c>
@@ -13102,7 +13102,7 @@
         <v>1436</v>
       </c>
       <c r="C416" t="s">
-        <v>1824</v>
+        <v>1840</v>
       </c>
       <c r="D416" t="s">
         <v>1233</v>
@@ -13111,7 +13111,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>1234</v>
       </c>
@@ -13119,7 +13119,7 @@
         <v>1436</v>
       </c>
       <c r="C417" t="s">
-        <v>1825</v>
+        <v>1841</v>
       </c>
       <c r="D417" t="s">
         <v>1235</v>
@@ -13128,7 +13128,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>1237</v>
       </c>
@@ -13136,13 +13136,13 @@
         <v>1436</v>
       </c>
       <c r="C418" t="s">
-        <v>1826</v>
+        <v>1842</v>
       </c>
       <c r="E418" t="s">
         <v>1238</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>1239</v>
       </c>
@@ -13150,7 +13150,7 @@
         <v>1436</v>
       </c>
       <c r="C419" t="s">
-        <v>1827</v>
+        <v>1843</v>
       </c>
       <c r="D419" t="s">
         <v>1240</v>
@@ -13159,7 +13159,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>1242</v>
       </c>
@@ -13167,7 +13167,7 @@
         <v>1436</v>
       </c>
       <c r="C420" t="s">
-        <v>1828</v>
+        <v>1844</v>
       </c>
       <c r="D420" t="s">
         <v>1243</v>
@@ -13176,7 +13176,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>1245</v>
       </c>
@@ -13187,7 +13187,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>1247</v>
       </c>
@@ -13198,7 +13198,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>1249</v>
       </c>
@@ -13215,7 +13215,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>1252</v>
       </c>
@@ -13223,7 +13223,7 @@
         <v>1436</v>
       </c>
       <c r="C424" t="s">
-        <v>1805</v>
+        <v>1831</v>
       </c>
       <c r="D424" t="s">
         <v>1253</v>
@@ -13232,7 +13232,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>1255</v>
       </c>
@@ -13240,7 +13240,7 @@
         <v>1436</v>
       </c>
       <c r="C425" t="s">
-        <v>1829</v>
+        <v>1845</v>
       </c>
       <c r="D425" t="s">
         <v>1256</v>
@@ -13249,7 +13249,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>1258</v>
       </c>
@@ -13257,7 +13257,7 @@
         <v>1436</v>
       </c>
       <c r="C426" t="s">
-        <v>1798</v>
+        <v>1816</v>
       </c>
       <c r="D426" t="s">
         <v>1259</v>
@@ -13266,7 +13266,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>1261</v>
       </c>
@@ -13274,7 +13274,7 @@
         <v>1436</v>
       </c>
       <c r="C427" t="s">
-        <v>1830</v>
+        <v>1846</v>
       </c>
       <c r="D427" t="s">
         <v>1262</v>
@@ -13283,7 +13283,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>1263</v>
       </c>
@@ -13291,7 +13291,7 @@
         <v>1436</v>
       </c>
       <c r="C428" t="s">
-        <v>1831</v>
+        <v>1847</v>
       </c>
       <c r="D428" t="s">
         <v>1264</v>
@@ -13300,7 +13300,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>1266</v>
       </c>
@@ -13308,7 +13308,7 @@
         <v>1436</v>
       </c>
       <c r="C429" t="s">
-        <v>1832</v>
+        <v>1848</v>
       </c>
       <c r="D429" t="s">
         <v>1267</v>
@@ -13317,7 +13317,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>1269</v>
       </c>
@@ -13325,7 +13325,7 @@
         <v>1436</v>
       </c>
       <c r="C430" t="s">
-        <v>1833</v>
+        <v>1849</v>
       </c>
       <c r="D430" t="s">
         <v>1270</v>
@@ -13334,7 +13334,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>1271</v>
       </c>
@@ -13342,7 +13342,7 @@
         <v>1436</v>
       </c>
       <c r="C431" t="s">
-        <v>1834</v>
+        <v>1850</v>
       </c>
       <c r="D431" t="s">
         <v>1272</v>
@@ -13351,7 +13351,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>1274</v>
       </c>
@@ -13359,7 +13359,7 @@
         <v>1436</v>
       </c>
       <c r="C432" t="s">
-        <v>1835</v>
+        <v>1851</v>
       </c>
       <c r="D432" t="s">
         <v>1275</v>
@@ -13368,7 +13368,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>1277</v>
       </c>
@@ -13376,7 +13376,7 @@
         <v>1436</v>
       </c>
       <c r="C433" t="s">
-        <v>1836</v>
+        <v>1852</v>
       </c>
       <c r="D433" t="s">
         <v>1278</v>
@@ -13385,7 +13385,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>1280</v>
       </c>
@@ -13393,7 +13393,7 @@
         <v>1436</v>
       </c>
       <c r="C434" t="s">
-        <v>1837</v>
+        <v>1853</v>
       </c>
       <c r="D434" t="s">
         <v>1281</v>
@@ -13402,7 +13402,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>1283</v>
       </c>
@@ -13410,7 +13410,7 @@
         <v>1436</v>
       </c>
       <c r="C435" t="s">
-        <v>1838</v>
+        <v>1854</v>
       </c>
       <c r="D435" t="s">
         <v>1284</v>
@@ -13419,7 +13419,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>1286</v>
       </c>
@@ -13427,7 +13427,7 @@
         <v>1436</v>
       </c>
       <c r="C436" t="s">
-        <v>1840</v>
+        <v>1855</v>
       </c>
       <c r="D436" t="s">
         <v>1287</v>
@@ -13436,7 +13436,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>1289</v>
       </c>
@@ -13444,7 +13444,7 @@
         <v>1436</v>
       </c>
       <c r="C437" t="s">
-        <v>1839</v>
+        <v>1856</v>
       </c>
       <c r="D437" t="s">
         <v>1290</v>
@@ -13453,7 +13453,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>1292</v>
       </c>
@@ -13461,7 +13461,7 @@
         <v>1436</v>
       </c>
       <c r="C438" t="s">
-        <v>1810</v>
+        <v>1857</v>
       </c>
       <c r="D438" t="s">
         <v>1293</v>
@@ -13470,7 +13470,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>1295</v>
       </c>
@@ -13487,7 +13487,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>1298</v>
       </c>
@@ -13504,7 +13504,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>1301</v>
       </c>
@@ -13521,7 +13521,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>1304</v>
       </c>
@@ -13538,7 +13538,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>1307</v>
       </c>
@@ -13546,7 +13546,7 @@
         <v>1436</v>
       </c>
       <c r="C443" t="s">
-        <v>1841</v>
+        <v>1858</v>
       </c>
       <c r="D443" t="s">
         <v>1308</v>
@@ -13555,7 +13555,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>1310</v>
       </c>
@@ -13563,7 +13563,7 @@
         <v>1436</v>
       </c>
       <c r="C444" t="s">
-        <v>1842</v>
+        <v>1859</v>
       </c>
       <c r="D444" t="s">
         <v>1311</v>
@@ -13572,7 +13572,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>1313</v>
       </c>
@@ -13580,7 +13580,7 @@
         <v>1436</v>
       </c>
       <c r="C445" t="s">
-        <v>1843</v>
+        <v>1860</v>
       </c>
       <c r="D445" t="s">
         <v>1314</v>
@@ -13589,7 +13589,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>1316</v>
       </c>
@@ -13597,7 +13597,7 @@
         <v>1436</v>
       </c>
       <c r="C446" t="s">
-        <v>1848</v>
+        <v>1861</v>
       </c>
       <c r="D446" t="s">
         <v>1317</v>
@@ -13606,7 +13606,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>1319</v>
       </c>
@@ -13614,7 +13614,7 @@
         <v>1436</v>
       </c>
       <c r="C447" t="s">
-        <v>1844</v>
+        <v>1862</v>
       </c>
       <c r="D447" t="s">
         <v>1320</v>
@@ -13623,7 +13623,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>1322</v>
       </c>
@@ -13631,7 +13631,7 @@
         <v>1436</v>
       </c>
       <c r="C448" t="s">
-        <v>1845</v>
+        <v>1863</v>
       </c>
       <c r="D448" t="s">
         <v>1323</v>
@@ -13640,7 +13640,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>1325</v>
       </c>
@@ -13648,7 +13648,7 @@
         <v>1436</v>
       </c>
       <c r="C449" t="s">
-        <v>1846</v>
+        <v>1864</v>
       </c>
       <c r="D449" t="s">
         <v>1326</v>
@@ -13657,7 +13657,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>1328</v>
       </c>
@@ -13665,7 +13665,7 @@
         <v>1436</v>
       </c>
       <c r="C450" t="s">
-        <v>1847</v>
+        <v>1865</v>
       </c>
       <c r="D450" t="s">
         <v>1329</v>
@@ -13674,7 +13674,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>1331</v>
       </c>
@@ -13682,7 +13682,7 @@
         <v>1436</v>
       </c>
       <c r="C451" t="s">
-        <v>1849</v>
+        <v>1866</v>
       </c>
       <c r="D451" t="s">
         <v>1332</v>
@@ -13691,7 +13691,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>1334</v>
       </c>
@@ -13699,7 +13699,7 @@
         <v>1436</v>
       </c>
       <c r="C452" t="s">
-        <v>1849</v>
+        <v>1866</v>
       </c>
       <c r="D452" t="s">
         <v>1335</v>
@@ -13708,7 +13708,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>1337</v>
       </c>
@@ -13716,7 +13716,7 @@
         <v>1436</v>
       </c>
       <c r="C453" t="s">
-        <v>1850</v>
+        <v>1867</v>
       </c>
       <c r="D453" t="s">
         <v>1338</v>
@@ -13725,7 +13725,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>1340</v>
       </c>
@@ -13733,7 +13733,7 @@
         <v>1436</v>
       </c>
       <c r="C454" t="s">
-        <v>1851</v>
+        <v>1868</v>
       </c>
       <c r="D454" t="s">
         <v>1341</v>
@@ -13742,7 +13742,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>1343</v>
       </c>
@@ -13750,7 +13750,7 @@
         <v>1436</v>
       </c>
       <c r="C455" t="s">
-        <v>1852</v>
+        <v>1869</v>
       </c>
       <c r="D455" t="s">
         <v>1344</v>
@@ -13759,7 +13759,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>1346</v>
       </c>
@@ -13767,7 +13767,7 @@
         <v>1436</v>
       </c>
       <c r="C456" t="s">
-        <v>1853</v>
+        <v>1870</v>
       </c>
       <c r="D456" t="s">
         <v>1347</v>
@@ -13776,7 +13776,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>1349</v>
       </c>
@@ -13793,7 +13793,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>1352</v>
       </c>
@@ -13801,7 +13801,7 @@
         <v>1436</v>
       </c>
       <c r="C458" t="s">
-        <v>1854</v>
+        <v>1871</v>
       </c>
       <c r="D458" t="s">
         <v>1353</v>
@@ -13810,7 +13810,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>1355</v>
       </c>
@@ -13818,7 +13818,7 @@
         <v>1436</v>
       </c>
       <c r="C459" t="s">
-        <v>1855</v>
+        <v>1872</v>
       </c>
       <c r="D459" t="s">
         <v>1356</v>
@@ -13827,7 +13827,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>1358</v>
       </c>
@@ -13835,7 +13835,7 @@
         <v>1436</v>
       </c>
       <c r="C460" t="s">
-        <v>1856</v>
+        <v>1873</v>
       </c>
       <c r="D460" t="s">
         <v>1359</v>
@@ -13844,7 +13844,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>1361</v>
       </c>
@@ -13852,7 +13852,7 @@
         <v>1436</v>
       </c>
       <c r="C461" t="s">
-        <v>1857</v>
+        <v>1874</v>
       </c>
       <c r="D461" t="s">
         <v>1362</v>
@@ -13861,7 +13861,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>1364</v>
       </c>
@@ -13869,7 +13869,7 @@
         <v>1436</v>
       </c>
       <c r="C462" t="s">
-        <v>1858</v>
+        <v>1875</v>
       </c>
       <c r="D462" t="s">
         <v>1365</v>
@@ -13878,7 +13878,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>1366</v>
       </c>
@@ -13886,7 +13886,7 @@
         <v>1436</v>
       </c>
       <c r="C463" t="s">
-        <v>1859</v>
+        <v>1876</v>
       </c>
       <c r="D463" t="s">
         <v>1367</v>
@@ -13895,7 +13895,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>1369</v>
       </c>
@@ -13903,7 +13903,7 @@
         <v>1436</v>
       </c>
       <c r="C464" t="s">
-        <v>1860</v>
+        <v>1877</v>
       </c>
       <c r="D464" t="s">
         <v>1370</v>
@@ -13912,7 +13912,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>1371</v>
       </c>
@@ -13929,7 +13929,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>1374</v>
       </c>
@@ -13937,7 +13937,7 @@
         <v>1436</v>
       </c>
       <c r="C466" t="s">
-        <v>1861</v>
+        <v>1878</v>
       </c>
       <c r="D466" t="s">
         <v>1375</v>
@@ -13946,7 +13946,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>1376</v>
       </c>
@@ -13954,7 +13954,7 @@
         <v>1436</v>
       </c>
       <c r="C467" t="s">
-        <v>1862</v>
+        <v>1879</v>
       </c>
       <c r="D467" t="s">
         <v>1377</v>
@@ -13963,7 +13963,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>1379</v>
       </c>
@@ -13971,7 +13971,7 @@
         <v>1436</v>
       </c>
       <c r="C468" t="s">
-        <v>1863</v>
+        <v>1880</v>
       </c>
       <c r="D468" t="s">
         <v>1380</v>
@@ -13980,7 +13980,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>1382</v>
       </c>
@@ -13988,7 +13988,7 @@
         <v>1436</v>
       </c>
       <c r="C469" t="s">
-        <v>1864</v>
+        <v>1881</v>
       </c>
       <c r="D469" t="s">
         <v>1383</v>
@@ -13997,7 +13997,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>1385</v>
       </c>
@@ -14005,7 +14005,7 @@
         <v>1436</v>
       </c>
       <c r="C470" t="s">
-        <v>1865</v>
+        <v>1882</v>
       </c>
       <c r="D470" t="s">
         <v>1386</v>
@@ -14014,7 +14014,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>1388</v>
       </c>
@@ -14022,7 +14022,7 @@
         <v>1436</v>
       </c>
       <c r="C471" t="s">
-        <v>1866</v>
+        <v>1883</v>
       </c>
       <c r="D471" t="s">
         <v>1389</v>
@@ -14031,7 +14031,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>1391</v>
       </c>
@@ -14039,7 +14039,7 @@
         <v>1436</v>
       </c>
       <c r="C472" t="s">
-        <v>1867</v>
+        <v>1884</v>
       </c>
       <c r="D472" t="s">
         <v>1392</v>
@@ -14048,7 +14048,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>1394</v>
       </c>
@@ -14056,7 +14056,7 @@
         <v>1436</v>
       </c>
       <c r="C473" t="s">
-        <v>1868</v>
+        <v>1885</v>
       </c>
       <c r="D473" t="s">
         <v>1395</v>
@@ -14065,7 +14065,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>1397</v>
       </c>
@@ -14073,7 +14073,7 @@
         <v>1436</v>
       </c>
       <c r="C474" t="s">
-        <v>1869</v>
+        <v>1886</v>
       </c>
       <c r="D474" t="s">
         <v>1398</v>
@@ -14082,7 +14082,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>1400</v>
       </c>
@@ -14099,7 +14099,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>1403</v>
       </c>
@@ -14116,7 +14116,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>1406</v>
       </c>
@@ -14133,7 +14133,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>1409</v>
       </c>
@@ -14150,7 +14150,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>1412</v>
       </c>
@@ -14167,7 +14167,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>1415</v>
       </c>
@@ -14184,7 +14184,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>1418</v>
       </c>
@@ -14201,7 +14201,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>1421</v>
       </c>
@@ -14218,7 +14218,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>1424</v>
       </c>
@@ -14226,7 +14226,7 @@
         <v>1436</v>
       </c>
       <c r="C483" t="s">
-        <v>1870</v>
+        <v>1887</v>
       </c>
       <c r="D483" t="s">
         <v>1425</v>
@@ -14235,7 +14235,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>1427</v>
       </c>
@@ -14243,7 +14243,7 @@
         <v>1436</v>
       </c>
       <c r="C484" t="s">
-        <v>1871</v>
+        <v>1888</v>
       </c>
       <c r="D484" t="s">
         <v>1428</v>
@@ -14252,7 +14252,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>1430</v>
       </c>
@@ -14260,7 +14260,7 @@
         <v>1442</v>
       </c>
       <c r="C485" t="s">
-        <v>1872</v>
+        <v>1889</v>
       </c>
       <c r="D485" t="s">
         <v>1431</v>
@@ -14269,7 +14269,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>1433</v>
       </c>
@@ -14277,7 +14277,7 @@
         <v>1443</v>
       </c>
       <c r="C486" t="s">
-        <v>1873</v>
+        <v>1890</v>
       </c>
       <c r="D486" t="s">
         <v>1434</v>
@@ -14287,7 +14287,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:E486" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:E2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>